--- a/DOKUMENT/TIDPLANERING/tidplan_v0.3.xlsx
+++ b/DOKUMENT/TIDPLANERING/tidplan_v0.3.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Måns\Documents\GitHub\TSEA56Grupp2\DOKUMENT\TIDPLANERING\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
@@ -10,12 +15,12 @@
     <sheet name="Basplan" sheetId="1" r:id="rId1"/>
     <sheet name="Summering TID" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="95">
   <si>
     <t>Beställare:</t>
   </si>
@@ -101,9 +106,6 @@
     <t>Motorstyrning</t>
   </si>
   <si>
-    <t>PD-reglering</t>
-  </si>
-  <si>
     <t>Programmering av LCD</t>
   </si>
   <si>
@@ -113,18 +115,9 @@
     <t>Installera blåtandslänk</t>
   </si>
   <si>
-    <t>Intermodulär kommunikation</t>
-  </si>
-  <si>
-    <t>Installera sensorer</t>
-  </si>
-  <si>
     <t>Montera LCD-skärm</t>
   </si>
   <si>
-    <t>Seriell överföring</t>
-  </si>
-  <si>
     <t>Buffertid</t>
   </si>
   <si>
@@ -276,6 +269,42 @@
   </si>
   <si>
     <t>0.3</t>
+  </si>
+  <si>
+    <t>PD-regleringsalgoritm</t>
+  </si>
+  <si>
+    <t>PD-reglering, realisering</t>
+  </si>
+  <si>
+    <t>Installera avståndssensorer</t>
+  </si>
+  <si>
+    <t>Installera reflexsensor</t>
+  </si>
+  <si>
+    <t>Installera vinkelhastighetssensor</t>
+  </si>
+  <si>
+    <t>Seriell överföring, programkod vidarebefodran</t>
+  </si>
+  <si>
+    <t>Seriell överföring, programkod mottagning</t>
+  </si>
+  <si>
+    <t>Seriell överföring, funktionell</t>
+  </si>
+  <si>
+    <t>Tävlingsoptimering</t>
+  </si>
+  <si>
+    <t>Användarhandledning</t>
+  </si>
+  <si>
+    <t>Teknisk dokumentation</t>
+  </si>
+  <si>
+    <t>MS, Abr</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1305,9 +1334,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1354,17 +1380,69 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1416,66 +1494,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1491,21 +1509,67 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1553,73 +1617,40 @@
     <xf numFmtId="14" fontId="5" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1685,7 +1716,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1720,7 +1751,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1932,10 +1963,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF57"/>
+  <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="AC61" sqref="AC61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1954,211 +1985,211 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="115"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="129"/>
+      <c r="U1" s="129"/>
+      <c r="V1" s="129"/>
+      <c r="W1" s="129"/>
+      <c r="X1" s="129"/>
+      <c r="Y1" s="129"/>
+      <c r="Z1" s="129"/>
+      <c r="AA1" s="129"/>
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="129"/>
+      <c r="AD1" s="129"/>
+      <c r="AE1" s="130"/>
     </row>
     <row r="2" spans="1:32" s="3" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="152"/>
+      <c r="B2" s="150"/>
       <c r="C2" s="24"/>
-      <c r="D2" s="116" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="116"/>
-      <c r="V2" s="116"/>
-      <c r="W2" s="116"/>
-      <c r="X2" s="116"/>
-      <c r="Y2" s="116"/>
-      <c r="Z2" s="116"/>
-      <c r="AA2" s="116"/>
-      <c r="AB2" s="116"/>
-      <c r="AC2" s="116"/>
-      <c r="AD2" s="116"/>
-      <c r="AE2" s="117"/>
+      <c r="D2" s="131" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="131"/>
+      <c r="Y2" s="131"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="132"/>
     </row>
     <row r="3" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="131"/>
+      <c r="B3" s="127"/>
       <c r="C3" s="25"/>
-      <c r="D3" s="137">
+      <c r="D3" s="116">
         <v>2</v>
       </c>
-      <c r="E3" s="137"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="130" t="s">
+      <c r="E3" s="116"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="131"/>
-      <c r="I3" s="124">
+      <c r="H3" s="127"/>
+      <c r="I3" s="139">
         <v>42053</v>
       </c>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="130" t="s">
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="140"/>
+      <c r="P3" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="131"/>
-      <c r="R3" s="131"/>
-      <c r="S3" s="131"/>
-      <c r="T3" s="131"/>
-      <c r="U3" s="145"/>
-      <c r="V3" s="145"/>
-      <c r="W3" s="145"/>
-      <c r="X3" s="145"/>
-      <c r="Y3" s="145"/>
-      <c r="Z3" s="145"/>
-      <c r="AA3" s="145"/>
-      <c r="AB3" s="145"/>
-      <c r="AC3" s="145"/>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="146"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
+      <c r="S3" s="127"/>
+      <c r="T3" s="127"/>
+      <c r="U3" s="143"/>
+      <c r="V3" s="143"/>
+      <c r="W3" s="143"/>
+      <c r="X3" s="143"/>
+      <c r="Y3" s="143"/>
+      <c r="Z3" s="143"/>
+      <c r="AA3" s="143"/>
+      <c r="AB3" s="143"/>
+      <c r="AC3" s="143"/>
+      <c r="AD3" s="143"/>
+      <c r="AE3" s="144"/>
     </row>
     <row r="4" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="143" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="144"/>
+      <c r="A4" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="125"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="139" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="143" t="s">
+      <c r="D4" s="118" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="118"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="144"/>
-      <c r="I4" s="126" t="s">
-        <v>86</v>
-      </c>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="127"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="141" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="141"/>
+      <c r="M4" s="141"/>
+      <c r="N4" s="141"/>
+      <c r="O4" s="142"/>
       <c r="P4" s="26"/>
-      <c r="Q4" s="150" t="s">
-        <v>60</v>
-      </c>
-      <c r="R4" s="150"/>
-      <c r="S4" s="150"/>
-      <c r="T4" s="150"/>
-      <c r="U4" s="150"/>
-      <c r="V4" s="150"/>
-      <c r="W4" s="150"/>
-      <c r="X4" s="150"/>
-      <c r="Y4" s="150"/>
-      <c r="Z4" s="150"/>
-      <c r="AA4" s="150"/>
-      <c r="AB4" s="150"/>
-      <c r="AC4" s="150"/>
-      <c r="AD4" s="150"/>
+      <c r="Q4" s="148" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" s="148"/>
+      <c r="S4" s="148"/>
+      <c r="T4" s="148"/>
+      <c r="U4" s="148"/>
+      <c r="V4" s="148"/>
+      <c r="W4" s="148"/>
+      <c r="X4" s="148"/>
+      <c r="Y4" s="148"/>
+      <c r="Z4" s="148"/>
+      <c r="AA4" s="148"/>
+      <c r="AB4" s="148"/>
+      <c r="AC4" s="148"/>
+      <c r="AD4" s="148"/>
       <c r="AE4" s="27"/>
     </row>
     <row r="5" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="141" t="s">
+      <c r="A5" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="142"/>
+      <c r="B5" s="123"/>
       <c r="C5" s="28"/>
-      <c r="D5" s="128" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="128"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="141" t="s">
+      <c r="D5" s="120" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="120"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="142"/>
-      <c r="I5" s="128" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="129"/>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="148"/>
-      <c r="R5" s="148"/>
-      <c r="S5" s="148"/>
-      <c r="T5" s="148"/>
-      <c r="U5" s="148"/>
-      <c r="V5" s="148"/>
-      <c r="W5" s="148"/>
-      <c r="X5" s="148"/>
-      <c r="Y5" s="148"/>
-      <c r="Z5" s="148"/>
-      <c r="AA5" s="148"/>
-      <c r="AB5" s="148"/>
-      <c r="AC5" s="148"/>
-      <c r="AD5" s="148"/>
-      <c r="AE5" s="149"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="120" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="145"/>
+      <c r="Q5" s="146"/>
+      <c r="R5" s="146"/>
+      <c r="S5" s="146"/>
+      <c r="T5" s="146"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="146"/>
+      <c r="W5" s="146"/>
+      <c r="X5" s="146"/>
+      <c r="Y5" s="146"/>
+      <c r="Z5" s="146"/>
+      <c r="AA5" s="146"/>
+      <c r="AB5" s="146"/>
+      <c r="AC5" s="146"/>
+      <c r="AD5" s="146"/>
+      <c r="AE5" s="147"/>
     </row>
     <row r="6" spans="1:32" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
       <c r="E6" s="40"/>
       <c r="F6" s="41" t="s">
         <v>12</v>
@@ -2166,42 +2197,42 @@
       <c r="G6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="118" t="s">
+      <c r="H6" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="119"/>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119"/>
-      <c r="S6" s="119"/>
-      <c r="T6" s="119"/>
-      <c r="U6" s="119"/>
-      <c r="V6" s="119"/>
-      <c r="W6" s="119"/>
-      <c r="X6" s="119"/>
-      <c r="Y6" s="119"/>
-      <c r="Z6" s="119"/>
-      <c r="AA6" s="119"/>
-      <c r="AB6" s="119"/>
-      <c r="AC6" s="119"/>
-      <c r="AD6" s="119"/>
-      <c r="AE6" s="120"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="134"/>
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="134"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="134"/>
+      <c r="U6" s="134"/>
+      <c r="V6" s="134"/>
+      <c r="W6" s="134"/>
+      <c r="X6" s="134"/>
+      <c r="Y6" s="134"/>
+      <c r="Z6" s="134"/>
+      <c r="AA6" s="134"/>
+      <c r="AB6" s="134"/>
+      <c r="AC6" s="134"/>
+      <c r="AD6" s="134"/>
+      <c r="AE6" s="135"/>
     </row>
     <row r="7" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="122"/>
-      <c r="D7" s="123"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="138"/>
       <c r="E7" s="30"/>
       <c r="F7" s="31" t="s">
         <v>13</v>
@@ -2284,19 +2315,19 @@
     </row>
     <row r="8" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35">
-        <v>4</v>
-      </c>
-      <c r="B8" s="107" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="103"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="102"/>
       <c r="E8" s="4"/>
       <c r="F8" s="56">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G8" s="63" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H8" s="57"/>
       <c r="I8" s="58"/>
@@ -2313,11 +2344,11 @@
         <v>20</v>
       </c>
       <c r="R8" s="58">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S8" s="80"/>
       <c r="T8" s="58">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="U8" s="85">
         <v>10</v>
@@ -2335,12 +2366,12 @@
       <c r="AD8" s="10"/>
       <c r="AE8" s="36">
         <f>SUM(H8:AD8)</f>
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="94">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" s="92" t="s">
         <v>26</v>
@@ -2352,7 +2383,7 @@
         <v>50</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H9" s="57"/>
       <c r="I9" s="58"/>
@@ -2388,19 +2419,19 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="94">
-        <v>6</v>
-      </c>
-      <c r="B10" s="107" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="103"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="106" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="101"/>
+      <c r="D10" s="102"/>
       <c r="E10" s="4"/>
       <c r="F10" s="56">
         <v>70</v>
       </c>
       <c r="G10" s="63" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H10" s="57"/>
       <c r="I10" s="58"/>
@@ -2419,12 +2450,14 @@
       <c r="V10" s="58"/>
       <c r="W10" s="80"/>
       <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
+      <c r="Y10" s="58">
+        <v>30</v>
+      </c>
       <c r="Z10" s="58">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AA10" s="58">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AB10" s="58"/>
       <c r="AC10" s="58"/>
@@ -2436,19 +2469,19 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="94">
-        <v>7</v>
-      </c>
-      <c r="B11" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="101"/>
+      <c r="D11" s="102"/>
       <c r="E11" s="4"/>
       <c r="F11" s="56">
         <v>30</v>
       </c>
       <c r="G11" s="63" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H11" s="57"/>
       <c r="I11" s="58"/>
@@ -2484,19 +2517,19 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="94">
-        <v>8</v>
-      </c>
-      <c r="B12" s="107" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="103"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="106" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="101"/>
+      <c r="D12" s="102"/>
       <c r="E12" s="4"/>
       <c r="F12" s="56">
         <v>70</v>
       </c>
       <c r="G12" s="63" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H12" s="57"/>
       <c r="I12" s="58"/>
@@ -2533,19 +2566,19 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="94">
-        <v>9</v>
-      </c>
-      <c r="B13" s="107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="102"/>
       <c r="E13" s="4"/>
       <c r="F13" s="56">
         <v>40</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H13" s="57"/>
       <c r="I13" s="58"/>
@@ -2560,14 +2593,14 @@
       <c r="R13" s="58"/>
       <c r="S13" s="80"/>
       <c r="T13" s="58"/>
-      <c r="U13" s="85">
-        <v>20</v>
-      </c>
+      <c r="U13" s="85"/>
       <c r="V13" s="58">
         <v>20</v>
       </c>
       <c r="W13" s="80"/>
-      <c r="X13" s="58"/>
+      <c r="X13" s="58">
+        <v>20</v>
+      </c>
       <c r="Y13" s="58"/>
       <c r="Z13" s="58"/>
       <c r="AA13" s="58"/>
@@ -2575,25 +2608,25 @@
       <c r="AC13" s="58"/>
       <c r="AD13" s="10"/>
       <c r="AE13" s="36">
-        <f>SUM(H13:AD13)</f>
+        <f t="shared" ref="AE13:AE28" si="1">SUM(H13:AD13)</f>
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="94">
-        <v>10</v>
-      </c>
-      <c r="B14" s="107" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="194" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="101"/>
+      <c r="D14" s="102"/>
       <c r="E14" s="4"/>
       <c r="F14" s="56">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G14" s="63" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H14" s="57"/>
       <c r="I14" s="58"/>
@@ -2615,35 +2648,33 @@
         <v>30</v>
       </c>
       <c r="Y14" s="58">
-        <v>30</v>
-      </c>
-      <c r="Z14" s="58">
-        <v>20</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="Z14" s="58"/>
       <c r="AA14" s="58"/>
       <c r="AB14" s="58"/>
       <c r="AC14" s="58"/>
       <c r="AD14" s="10"/>
       <c r="AE14" s="36">
-        <f>SUM(H14:AD14)</f>
-        <v>80</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="94">
-        <v>11</v>
-      </c>
-      <c r="B15" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="91"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="194" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="101"/>
+      <c r="D15" s="102"/>
       <c r="E15" s="4"/>
       <c r="F15" s="56">
-        <v>30</v>
-      </c>
-      <c r="G15" s="63" t="s">
-        <v>52</v>
+        <v>40</v>
+      </c>
+      <c r="G15" s="108" t="s">
+        <v>48</v>
       </c>
       <c r="H15" s="57"/>
       <c r="I15" s="58"/>
@@ -2655,45 +2686,43 @@
       <c r="O15" s="58"/>
       <c r="P15" s="58"/>
       <c r="Q15" s="58"/>
-      <c r="R15" s="58">
-        <v>10</v>
-      </c>
+      <c r="R15" s="58"/>
       <c r="S15" s="80"/>
-      <c r="T15" s="58">
-        <v>10</v>
-      </c>
+      <c r="T15" s="58"/>
       <c r="U15" s="85"/>
-      <c r="V15" s="58">
-        <v>10</v>
-      </c>
+      <c r="V15" s="58"/>
       <c r="W15" s="80"/>
       <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
+      <c r="Y15" s="58">
+        <v>30</v>
+      </c>
+      <c r="Z15" s="58">
+        <v>10</v>
+      </c>
       <c r="AA15" s="58"/>
       <c r="AB15" s="58"/>
       <c r="AC15" s="58"/>
       <c r="AD15" s="10"/>
       <c r="AE15" s="36">
-        <f>SUM(H15:AD15)</f>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="94">
-        <v>12</v>
-      </c>
-      <c r="B16" s="108" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="105"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="90"/>
+      <c r="D16" s="91"/>
       <c r="E16" s="4"/>
       <c r="F16" s="56">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G16" s="63" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H16" s="57"/>
       <c r="I16" s="58"/>
@@ -2705,15 +2734,17 @@
       <c r="O16" s="58"/>
       <c r="P16" s="58"/>
       <c r="Q16" s="58"/>
-      <c r="R16" s="58"/>
+      <c r="R16" s="58">
+        <v>10</v>
+      </c>
       <c r="S16" s="80"/>
       <c r="T16" s="58">
-        <v>20</v>
-      </c>
-      <c r="U16" s="85">
-        <v>30</v>
-      </c>
-      <c r="V16" s="58"/>
+        <v>10</v>
+      </c>
+      <c r="U16" s="85"/>
+      <c r="V16" s="58">
+        <v>10</v>
+      </c>
       <c r="W16" s="80"/>
       <c r="X16" s="58"/>
       <c r="Y16" s="58"/>
@@ -2723,25 +2754,25 @@
       <c r="AC16" s="58"/>
       <c r="AD16" s="10"/>
       <c r="AE16" s="36">
-        <f>SUM(H16:AD16)</f>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="94">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B17" s="107" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103"/>
+        <v>29</v>
+      </c>
+      <c r="C17" s="103"/>
+      <c r="D17" s="104"/>
       <c r="E17" s="4"/>
       <c r="F17" s="56">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G17" s="63" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H17" s="57"/>
       <c r="I17" s="58"/>
@@ -2758,7 +2789,9 @@
       <c r="T17" s="58">
         <v>20</v>
       </c>
-      <c r="U17" s="85"/>
+      <c r="U17" s="85">
+        <v>30</v>
+      </c>
       <c r="V17" s="58"/>
       <c r="W17" s="80"/>
       <c r="X17" s="58"/>
@@ -2769,25 +2802,25 @@
       <c r="AC17" s="58"/>
       <c r="AD17" s="10"/>
       <c r="AE17" s="36">
-        <f>SUM(H17:AD17)</f>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="94">
-        <v>14</v>
-      </c>
-      <c r="B18" s="107" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="103"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="101"/>
+      <c r="D18" s="102"/>
       <c r="E18" s="4"/>
       <c r="F18" s="56">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G18" s="63" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H18" s="57"/>
       <c r="I18" s="58"/>
@@ -2801,51 +2834,39 @@
       <c r="Q18" s="58"/>
       <c r="R18" s="58"/>
       <c r="S18" s="80"/>
-      <c r="T18" s="58">
-        <v>20</v>
-      </c>
-      <c r="U18" s="85">
-        <v>20</v>
-      </c>
+      <c r="T18" s="58"/>
+      <c r="U18" s="85"/>
       <c r="V18" s="58">
         <v>20</v>
       </c>
-      <c r="W18" s="80">
-        <v>10</v>
-      </c>
-      <c r="X18" s="58">
-        <v>10</v>
-      </c>
-      <c r="Y18" s="58">
-        <v>10</v>
-      </c>
-      <c r="Z18" s="58">
-        <v>10</v>
-      </c>
+      <c r="W18" s="80"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="58"/>
       <c r="AA18" s="58"/>
       <c r="AB18" s="58"/>
       <c r="AC18" s="58"/>
       <c r="AD18" s="10"/>
       <c r="AE18" s="36">
-        <f>SUM(H18:AD18)</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="94">
-        <v>15</v>
-      </c>
-      <c r="B19" s="107" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="102"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="194" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="101"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="56">
-        <v>100</v>
-      </c>
-      <c r="G19" s="63" t="s">
-        <v>53</v>
+        <v>40</v>
+      </c>
+      <c r="G19" s="108" t="s">
+        <v>47</v>
       </c>
       <c r="H19" s="57"/>
       <c r="I19" s="58"/>
@@ -2860,9 +2881,7 @@
       <c r="R19" s="58">
         <v>20</v>
       </c>
-      <c r="S19" s="80">
-        <v>60</v>
-      </c>
+      <c r="S19" s="80"/>
       <c r="T19" s="58">
         <v>20</v>
       </c>
@@ -2877,25 +2896,25 @@
       <c r="AC19" s="58"/>
       <c r="AD19" s="10"/>
       <c r="AE19" s="36">
-        <f>SUM(H19:AD19)</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="94">
-        <v>16</v>
-      </c>
-      <c r="B20" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="55">
-        <v>20</v>
-      </c>
-      <c r="G20" s="79" t="s">
-        <v>53</v>
+        <v>13</v>
+      </c>
+      <c r="B20" s="194" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="101"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="56">
+        <v>40</v>
+      </c>
+      <c r="G20" s="108" t="s">
+        <v>47</v>
       </c>
       <c r="H20" s="57"/>
       <c r="I20" s="58"/>
@@ -2909,39 +2928,41 @@
       <c r="Q20" s="58"/>
       <c r="R20" s="58"/>
       <c r="S20" s="80"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="85"/>
-      <c r="V20" s="58">
+      <c r="T20" s="58">
         <v>20</v>
       </c>
+      <c r="U20" s="85">
+        <v>20</v>
+      </c>
+      <c r="V20" s="58"/>
       <c r="W20" s="80"/>
       <c r="X20" s="58"/>
       <c r="Y20" s="58"/>
       <c r="Z20" s="58"/>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="59"/>
-      <c r="AD20" s="15"/>
+      <c r="AA20" s="58"/>
+      <c r="AB20" s="58"/>
+      <c r="AC20" s="58"/>
+      <c r="AD20" s="10"/>
       <c r="AE20" s="36">
-        <f>SUM(H20:AD20)</f>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="94">
-        <v>17</v>
-      </c>
-      <c r="B21" s="107" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="102"/>
-      <c r="D21" s="103"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="194" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="101"/>
+      <c r="D21" s="102"/>
       <c r="E21" s="7"/>
       <c r="F21" s="56">
-        <v>100</v>
-      </c>
-      <c r="G21" s="63" t="s">
-        <v>53</v>
+        <v>20</v>
+      </c>
+      <c r="G21" s="108" t="s">
+        <v>47</v>
       </c>
       <c r="H21" s="57"/>
       <c r="I21" s="58"/>
@@ -2954,52 +2975,40 @@
       <c r="P21" s="58"/>
       <c r="Q21" s="58"/>
       <c r="R21" s="58"/>
-      <c r="S21" s="80">
-        <v>10</v>
-      </c>
-      <c r="T21" s="58">
-        <v>20</v>
-      </c>
-      <c r="U21" s="85">
-        <v>5</v>
-      </c>
+      <c r="S21" s="80"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="85"/>
       <c r="V21" s="58">
         <v>20</v>
       </c>
-      <c r="W21" s="80">
-        <v>5</v>
-      </c>
-      <c r="X21" s="58">
-        <v>25</v>
-      </c>
-      <c r="Y21" s="58">
-        <v>15</v>
-      </c>
+      <c r="W21" s="80"/>
+      <c r="X21" s="58"/>
+      <c r="Y21" s="58"/>
       <c r="Z21" s="58"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="58"/>
+      <c r="AC21" s="58"/>
       <c r="AD21" s="10"/>
       <c r="AE21" s="36">
-        <f>SUM(H21:AD21)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="95">
-        <v>18</v>
-      </c>
-      <c r="B22" s="107" t="s">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A22" s="94">
+        <v>15</v>
+      </c>
+      <c r="B22" s="194" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="102"/>
-      <c r="D22" s="103"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="102"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="8">
-        <v>100</v>
-      </c>
-      <c r="G22" s="63" t="s">
-        <v>53</v>
+      <c r="F22" s="56">
+        <v>50</v>
+      </c>
+      <c r="G22" s="108" t="s">
+        <v>49</v>
       </c>
       <c r="H22" s="57"/>
       <c r="I22" s="58"/>
@@ -3011,42 +3020,43 @@
       <c r="O22" s="58"/>
       <c r="P22" s="58"/>
       <c r="Q22" s="58"/>
-      <c r="R22" s="58"/>
+      <c r="R22" s="58">
+        <v>20</v>
+      </c>
       <c r="S22" s="80"/>
-      <c r="T22" s="58"/>
+      <c r="T22" s="58">
+        <v>30</v>
+      </c>
       <c r="U22" s="85"/>
       <c r="V22" s="58"/>
       <c r="W22" s="80"/>
       <c r="X22" s="58"/>
-      <c r="Y22" s="59">
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="58"/>
+      <c r="AB22" s="58"/>
+      <c r="AC22" s="58"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="36">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="Z22" s="58">
-        <v>50</v>
-      </c>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="59"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="36">
-        <f>SUM(H22:AD22)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="95">
-        <v>19</v>
-      </c>
-      <c r="B23" s="190" t="s">
-        <v>36</v>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A23" s="94">
+        <v>16</v>
+      </c>
+      <c r="B23" s="194" t="s">
+        <v>86</v>
       </c>
       <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
+      <c r="D23" s="102"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="55">
-        <v>200</v>
-      </c>
-      <c r="G23" s="79" t="s">
-        <v>24</v>
+      <c r="F23" s="56">
+        <v>30</v>
+      </c>
+      <c r="G23" s="108" t="s">
+        <v>49</v>
       </c>
       <c r="H23" s="57"/>
       <c r="I23" s="58"/>
@@ -3059,56 +3069,42 @@
       <c r="P23" s="58"/>
       <c r="Q23" s="58"/>
       <c r="R23" s="58">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="S23" s="80"/>
       <c r="T23" s="58">
         <v>20</v>
       </c>
-      <c r="U23" s="85">
-        <v>20</v>
-      </c>
-      <c r="V23" s="58">
-        <v>20</v>
-      </c>
+      <c r="U23" s="85"/>
+      <c r="V23" s="58"/>
       <c r="W23" s="80"/>
-      <c r="X23" s="58">
-        <v>20</v>
-      </c>
-      <c r="Y23" s="58">
-        <v>20</v>
-      </c>
-      <c r="Z23" s="58">
-        <v>20</v>
-      </c>
-      <c r="AA23" s="6">
-        <v>30</v>
-      </c>
-      <c r="AB23" s="6">
-        <v>30</v>
-      </c>
-      <c r="AC23" s="6"/>
+      <c r="X23" s="58"/>
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="58"/>
+      <c r="AA23" s="58"/>
+      <c r="AB23" s="58"/>
+      <c r="AC23" s="58"/>
       <c r="AD23" s="10"/>
       <c r="AE23" s="36">
-        <f>SUM(H23:AD23)</f>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="94">
-        <v>20</v>
-      </c>
-      <c r="B24" s="190" t="s">
-        <v>77</v>
+        <v>17</v>
+      </c>
+      <c r="B24" s="194" t="s">
+        <v>87</v>
       </c>
       <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
+      <c r="D24" s="102"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="8">
-        <v>50</v>
-      </c>
-      <c r="G24" s="63" t="s">
-        <v>53</v>
+      <c r="F24" s="56">
+        <v>30</v>
+      </c>
+      <c r="G24" s="108" t="s">
+        <v>49</v>
       </c>
       <c r="H24" s="57"/>
       <c r="I24" s="58"/>
@@ -3121,52 +3117,42 @@
       <c r="P24" s="58"/>
       <c r="Q24" s="58"/>
       <c r="R24" s="58">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="S24" s="80"/>
       <c r="T24" s="58">
-        <v>5</v>
-      </c>
-      <c r="U24" s="85">
         <v>10</v>
       </c>
-      <c r="V24" s="58">
-        <v>5</v>
-      </c>
+      <c r="U24" s="85"/>
+      <c r="V24" s="58"/>
       <c r="W24" s="80"/>
-      <c r="X24" s="58">
-        <v>10</v>
-      </c>
-      <c r="Y24" s="58">
-        <v>10</v>
-      </c>
-      <c r="Z24" s="58">
-        <v>5</v>
-      </c>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="59"/>
-      <c r="AD24" s="15"/>
+      <c r="X24" s="58"/>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="58"/>
+      <c r="AA24" s="58"/>
+      <c r="AB24" s="58"/>
+      <c r="AC24" s="58"/>
+      <c r="AD24" s="10"/>
       <c r="AE24" s="36">
-        <f>SUM(H24:AD24)</f>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="94">
-        <v>21</v>
-      </c>
-      <c r="B25" s="190" t="s">
-        <v>78</v>
+        <v>18</v>
+      </c>
+      <c r="B25" s="106" t="s">
+        <v>31</v>
       </c>
       <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
+      <c r="D25" s="102"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="8">
-        <v>50</v>
-      </c>
-      <c r="G25" s="63" t="s">
-        <v>51</v>
+      <c r="F25" s="55">
+        <v>20</v>
+      </c>
+      <c r="G25" s="79" t="s">
+        <v>49</v>
       </c>
       <c r="H25" s="57"/>
       <c r="I25" s="58"/>
@@ -3180,49 +3166,39 @@
       <c r="Q25" s="58"/>
       <c r="R25" s="58"/>
       <c r="S25" s="80"/>
-      <c r="T25" s="58">
-        <v>10</v>
-      </c>
-      <c r="U25" s="85">
-        <v>5</v>
-      </c>
+      <c r="T25" s="58"/>
+      <c r="U25" s="85"/>
       <c r="V25" s="58">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="W25" s="80"/>
-      <c r="X25" s="58">
-        <v>10</v>
-      </c>
-      <c r="Y25" s="58">
-        <v>10</v>
-      </c>
-      <c r="Z25" s="58">
-        <v>5</v>
-      </c>
-      <c r="AA25" s="58"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="58"/>
-      <c r="AD25" s="96"/>
+      <c r="X25" s="58"/>
+      <c r="Y25" s="58"/>
+      <c r="Z25" s="58"/>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="59"/>
+      <c r="AD25" s="15"/>
       <c r="AE25" s="36">
-        <f t="shared" ref="AE25:AE31" si="1">SUM(H25:AD25)</f>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="94">
-        <v>22</v>
-      </c>
-      <c r="B26" s="101" t="s">
-        <v>84</v>
+        <v>19</v>
+      </c>
+      <c r="B26" s="106" t="s">
+        <v>81</v>
       </c>
       <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
+      <c r="D26" s="102"/>
       <c r="E26" s="4"/>
       <c r="F26" s="8">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G26" s="63" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H26" s="57"/>
       <c r="I26" s="58"/>
@@ -3234,45 +3210,42 @@
       <c r="O26" s="58"/>
       <c r="P26" s="58"/>
       <c r="Q26" s="58"/>
-      <c r="R26" s="58">
-        <v>12</v>
-      </c>
-      <c r="S26" s="80">
-        <v>3</v>
-      </c>
-      <c r="T26" s="58">
-        <v>15</v>
-      </c>
+      <c r="R26" s="58"/>
+      <c r="S26" s="80"/>
+      <c r="T26" s="58"/>
       <c r="U26" s="85"/>
       <c r="V26" s="58"/>
       <c r="W26" s="80"/>
       <c r="X26" s="58"/>
-      <c r="Y26" s="58"/>
-      <c r="Z26" s="58"/>
-      <c r="AA26" s="58"/>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="58"/>
-      <c r="AD26" s="96"/>
+      <c r="Y26" s="59">
+        <v>50</v>
+      </c>
+      <c r="Z26" s="58">
+        <v>50</v>
+      </c>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="15"/>
       <c r="AE26" s="36">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="94">
-        <v>23</v>
-      </c>
-      <c r="B27" s="190" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="8">
-        <v>25</v>
-      </c>
-      <c r="G27" s="63" t="s">
-        <v>52</v>
+      <c r="F27" s="55">
+        <v>200</v>
+      </c>
+      <c r="G27" s="79" t="s">
+        <v>24</v>
       </c>
       <c r="H27" s="57"/>
       <c r="I27" s="58"/>
@@ -3285,44 +3258,56 @@
       <c r="P27" s="58"/>
       <c r="Q27" s="58"/>
       <c r="R27" s="58">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="S27" s="80"/>
       <c r="T27" s="58">
-        <v>10</v>
-      </c>
-      <c r="U27" s="85"/>
+        <v>20</v>
+      </c>
+      <c r="U27" s="85">
+        <v>20</v>
+      </c>
       <c r="V27" s="58">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="W27" s="80"/>
-      <c r="X27" s="58"/>
-      <c r="Y27" s="58"/>
-      <c r="Z27" s="58"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="58"/>
-      <c r="AD27" s="96"/>
+      <c r="X27" s="58">
+        <v>20</v>
+      </c>
+      <c r="Y27" s="58">
+        <v>20</v>
+      </c>
+      <c r="Z27" s="58">
+        <v>20</v>
+      </c>
+      <c r="AA27" s="6">
+        <v>30</v>
+      </c>
+      <c r="AB27" s="6">
+        <v>30</v>
+      </c>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="10"/>
       <c r="AE27" s="36">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="94">
-        <v>24</v>
-      </c>
-      <c r="B28" s="190" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
+        <v>21</v>
+      </c>
+      <c r="B28" s="109" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
       <c r="E28" s="4"/>
       <c r="F28" s="8">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G28" s="63" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="H28" s="57"/>
       <c r="I28" s="58"/>
@@ -3338,41 +3323,43 @@
       <c r="S28" s="80"/>
       <c r="T28" s="58"/>
       <c r="U28" s="85"/>
-      <c r="V28" s="58"/>
+      <c r="V28" s="58">
+        <v>20</v>
+      </c>
       <c r="W28" s="80"/>
-      <c r="X28" s="58"/>
+      <c r="X28" s="58">
+        <v>10</v>
+      </c>
       <c r="Y28" s="58">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z28" s="58">
-        <v>15</v>
-      </c>
-      <c r="AA28" s="58">
-        <v>5</v>
-      </c>
-      <c r="AB28" s="58"/>
-      <c r="AC28" s="58"/>
-      <c r="AD28" s="96"/>
+        <v>10</v>
+      </c>
+      <c r="AA28" s="59"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="59"/>
+      <c r="AD28" s="15"/>
       <c r="AE28" s="36">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="94">
-        <v>25</v>
-      </c>
-      <c r="B29" s="190" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
+        <v>22</v>
+      </c>
+      <c r="B29" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
       <c r="E29" s="4"/>
       <c r="F29" s="8">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G29" s="63" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H29" s="57"/>
       <c r="I29" s="58"/>
@@ -3386,41 +3373,49 @@
       <c r="Q29" s="58"/>
       <c r="R29" s="58"/>
       <c r="S29" s="80"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="85"/>
-      <c r="V29" s="58"/>
+      <c r="T29" s="58">
+        <v>10</v>
+      </c>
+      <c r="U29" s="85">
+        <v>5</v>
+      </c>
+      <c r="V29" s="58">
+        <v>10</v>
+      </c>
       <c r="W29" s="80"/>
-      <c r="X29" s="58"/>
-      <c r="Y29" s="58"/>
+      <c r="X29" s="58">
+        <v>10</v>
+      </c>
+      <c r="Y29" s="58">
+        <v>10</v>
+      </c>
       <c r="Z29" s="58">
         <v>5</v>
       </c>
-      <c r="AA29" s="58">
-        <v>5</v>
-      </c>
+      <c r="AA29" s="58"/>
       <c r="AB29" s="58"/>
       <c r="AC29" s="58"/>
-      <c r="AD29" s="96"/>
+      <c r="AD29" s="95"/>
       <c r="AE29" s="36">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" ref="AE29:AE39" si="2">SUM(H29:AD29)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="94">
-        <v>26</v>
-      </c>
-      <c r="B30" s="190" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
+        <v>23</v>
+      </c>
+      <c r="B30" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
       <c r="E30" s="4"/>
       <c r="F30" s="8">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G30" s="63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H30" s="57"/>
       <c r="I30" s="58"/>
@@ -3432,10 +3427,14 @@
       <c r="O30" s="58"/>
       <c r="P30" s="58"/>
       <c r="Q30" s="58"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="80"/>
+      <c r="R30" s="58">
+        <v>12</v>
+      </c>
+      <c r="S30" s="80">
+        <v>3</v>
+      </c>
       <c r="T30" s="58">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U30" s="85"/>
       <c r="V30" s="58"/>
@@ -3446,22 +3445,28 @@
       <c r="AA30" s="58"/>
       <c r="AB30" s="58"/>
       <c r="AC30" s="58"/>
-      <c r="AD30" s="96"/>
+      <c r="AD30" s="95"/>
       <c r="AE30" s="36">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="94">
-        <v>27</v>
-      </c>
-      <c r="B31" s="101"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
+        <v>24</v>
+      </c>
+      <c r="B31" s="109" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="63"/>
+      <c r="F31" s="8">
+        <v>25</v>
+      </c>
+      <c r="G31" s="63" t="s">
+        <v>48</v>
+      </c>
       <c r="H31" s="57"/>
       <c r="I31" s="58"/>
       <c r="J31" s="58"/>
@@ -3472,11 +3477,17 @@
       <c r="O31" s="58"/>
       <c r="P31" s="58"/>
       <c r="Q31" s="58"/>
-      <c r="R31" s="58"/>
+      <c r="R31" s="58">
+        <v>5</v>
+      </c>
       <c r="S31" s="80"/>
-      <c r="T31" s="58"/>
+      <c r="T31" s="58">
+        <v>10</v>
+      </c>
       <c r="U31" s="85"/>
-      <c r="V31" s="58"/>
+      <c r="V31" s="58">
+        <v>10</v>
+      </c>
       <c r="W31" s="80"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="58"/>
@@ -3484,27 +3495,27 @@
       <c r="AA31" s="58"/>
       <c r="AB31" s="58"/>
       <c r="AC31" s="58"/>
-      <c r="AD31" s="96"/>
+      <c r="AD31" s="95"/>
       <c r="AE31" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="94">
-        <v>28</v>
-      </c>
-      <c r="B32" s="190" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
+        <v>25</v>
+      </c>
+      <c r="B32" s="109" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
       <c r="E32" s="4"/>
       <c r="F32" s="8">
-        <v>40</v>
-      </c>
-      <c r="G32" s="109" t="s">
-        <v>54</v>
+        <v>25</v>
+      </c>
+      <c r="G32" s="63" t="s">
+        <v>79</v>
       </c>
       <c r="H32" s="57"/>
       <c r="I32" s="58"/>
@@ -3513,67 +3524,49 @@
       <c r="L32" s="58"/>
       <c r="M32" s="58"/>
       <c r="N32" s="58"/>
-      <c r="O32" s="97">
-        <v>2</v>
-      </c>
-      <c r="P32" s="97">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="97">
-        <v>3</v>
-      </c>
-      <c r="R32" s="97">
-        <v>3</v>
-      </c>
-      <c r="S32" s="98">
-        <v>1</v>
-      </c>
-      <c r="T32" s="97">
-        <v>3</v>
-      </c>
-      <c r="U32" s="99">
-        <v>3</v>
-      </c>
-      <c r="V32" s="97">
-        <v>3</v>
-      </c>
-      <c r="W32" s="98">
-        <v>1</v>
-      </c>
-      <c r="X32" s="97">
-        <v>3</v>
-      </c>
-      <c r="Y32" s="97">
-        <v>3</v>
-      </c>
-      <c r="Z32" s="97">
-        <v>3</v>
-      </c>
-      <c r="AA32" s="100">
-        <v>3</v>
-      </c>
-      <c r="AB32" s="100">
-        <v>3</v>
-      </c>
-      <c r="AC32" s="100">
-        <v>3</v>
-      </c>
-      <c r="AD32" s="15"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="58"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="80"/>
+      <c r="T32" s="58"/>
+      <c r="U32" s="85"/>
+      <c r="V32" s="58"/>
+      <c r="W32" s="80"/>
+      <c r="X32" s="58"/>
+      <c r="Y32" s="58">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="58">
+        <v>15</v>
+      </c>
+      <c r="AA32" s="58">
+        <v>5</v>
+      </c>
+      <c r="AB32" s="58"/>
+      <c r="AC32" s="58"/>
+      <c r="AD32" s="95"/>
       <c r="AE32" s="36">
-        <f>SUM(H32:AD32)</f>
-        <v>40</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="94">
-        <v>29</v>
-      </c>
-      <c r="B33" s="108"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="105"/>
+        <v>26</v>
+      </c>
+      <c r="B33" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="5"/>
+      <c r="F33" s="8">
+        <v>10</v>
+      </c>
+      <c r="G33" s="63" t="s">
+        <v>48</v>
+      </c>
       <c r="H33" s="57"/>
       <c r="I33" s="58"/>
       <c r="J33" s="58"/>
@@ -3592,34 +3585,40 @@
       <c r="W33" s="80"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="58"/>
-      <c r="Z33" s="58"/>
-      <c r="AA33" s="6"/>
-      <c r="AB33" s="6"/>
-      <c r="AC33" s="6"/>
-      <c r="AD33" s="10"/>
+      <c r="Z33" s="58">
+        <v>5</v>
+      </c>
+      <c r="AA33" s="58">
+        <v>5</v>
+      </c>
+      <c r="AB33" s="58"/>
+      <c r="AC33" s="58"/>
+      <c r="AD33" s="95"/>
       <c r="AE33" s="36">
-        <f>SUM(H33:AD33)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="94">
-        <v>30</v>
-      </c>
-      <c r="B34" s="107" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="102"/>
-      <c r="D34" s="103"/>
+        <v>27</v>
+      </c>
+      <c r="B34" s="109" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="5"/>
+      <c r="F34" s="8">
+        <v>10</v>
+      </c>
+      <c r="G34" s="63" t="s">
+        <v>47</v>
+      </c>
       <c r="H34" s="57"/>
       <c r="I34" s="58"/>
       <c r="J34" s="58"/>
-      <c r="K34" s="73" t="s">
-        <v>44</v>
-      </c>
+      <c r="K34" s="58"/>
       <c r="L34" s="58"/>
       <c r="M34" s="58"/>
       <c r="N34" s="58"/>
@@ -3628,42 +3627,46 @@
       <c r="Q34" s="58"/>
       <c r="R34" s="58"/>
       <c r="S34" s="80"/>
-      <c r="T34" s="58"/>
+      <c r="T34" s="58">
+        <v>10</v>
+      </c>
       <c r="U34" s="85"/>
       <c r="V34" s="58"/>
       <c r="W34" s="80"/>
       <c r="X34" s="58"/>
       <c r="Y34" s="58"/>
       <c r="Z34" s="58"/>
-      <c r="AA34" s="59"/>
-      <c r="AB34" s="59"/>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="15"/>
+      <c r="AA34" s="58"/>
+      <c r="AB34" s="58"/>
+      <c r="AC34" s="58"/>
+      <c r="AD34" s="95"/>
       <c r="AE34" s="36">
-        <f>SUM(H34:AD34)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" s="94">
-        <v>31</v>
-      </c>
-      <c r="B35" s="191" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="106"/>
-      <c r="D35" s="106"/>
+        <v>28</v>
+      </c>
+      <c r="B35" s="195" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="5"/>
+      <c r="F35" s="8">
+        <v>10</v>
+      </c>
+      <c r="G35" s="108" t="s">
+        <v>24</v>
+      </c>
       <c r="H35" s="57"/>
       <c r="I35" s="58"/>
       <c r="J35" s="58"/>
       <c r="K35" s="58"/>
       <c r="L35" s="58"/>
-      <c r="M35" s="73" t="s">
-        <v>45</v>
-      </c>
+      <c r="M35" s="58"/>
       <c r="N35" s="58"/>
       <c r="O35" s="58"/>
       <c r="P35" s="58"/>
@@ -3677,27 +3680,33 @@
       <c r="X35" s="58"/>
       <c r="Y35" s="58"/>
       <c r="Z35" s="58"/>
-      <c r="AA35" s="6"/>
-      <c r="AB35" s="6"/>
-      <c r="AC35" s="6"/>
-      <c r="AD35" s="10"/>
+      <c r="AA35" s="58"/>
+      <c r="AB35" s="58"/>
+      <c r="AC35" s="58">
+        <v>10</v>
+      </c>
+      <c r="AD35" s="95"/>
       <c r="AE35" s="36">
-        <f>SUM(H35:AD35)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" s="94">
-        <v>32</v>
-      </c>
-      <c r="B36" s="107" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="102"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="B36" s="195" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="100"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="8">
+        <v>30</v>
+      </c>
+      <c r="G36" s="108" t="s">
+        <v>49</v>
+      </c>
       <c r="H36" s="57"/>
       <c r="I36" s="58"/>
       <c r="J36" s="58"/>
@@ -3705,9 +3714,7 @@
       <c r="L36" s="58"/>
       <c r="M36" s="58"/>
       <c r="N36" s="58"/>
-      <c r="O36" s="73" t="s">
-        <v>44</v>
-      </c>
+      <c r="O36" s="58"/>
       <c r="P36" s="58"/>
       <c r="Q36" s="58"/>
       <c r="R36" s="58"/>
@@ -3719,27 +3726,37 @@
       <c r="X36" s="58"/>
       <c r="Y36" s="58"/>
       <c r="Z36" s="58"/>
-      <c r="AA36" s="59"/>
-      <c r="AB36" s="59"/>
-      <c r="AC36" s="59"/>
-      <c r="AD36" s="15"/>
+      <c r="AA36" s="58">
+        <v>10</v>
+      </c>
+      <c r="AB36" s="58">
+        <v>10</v>
+      </c>
+      <c r="AC36" s="58">
+        <v>10</v>
+      </c>
+      <c r="AD36" s="58"/>
       <c r="AE36" s="36">
-        <f>SUM(H36:AD36)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="94">
-        <v>33</v>
-      </c>
-      <c r="B37" s="191" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
+        <v>30</v>
+      </c>
+      <c r="B37" s="195" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="5"/>
+      <c r="F37" s="8">
+        <v>30</v>
+      </c>
+      <c r="G37" s="108" t="s">
+        <v>94</v>
+      </c>
       <c r="H37" s="57"/>
       <c r="I37" s="58"/>
       <c r="J37" s="58"/>
@@ -3747,40 +3764,43 @@
       <c r="L37" s="58"/>
       <c r="M37" s="58"/>
       <c r="N37" s="58"/>
+      <c r="O37" s="58"/>
       <c r="P37" s="58"/>
       <c r="Q37" s="58"/>
       <c r="R37" s="58"/>
       <c r="S37" s="80"/>
-      <c r="T37" s="73" t="s">
-        <v>45</v>
-      </c>
+      <c r="T37" s="58"/>
       <c r="U37" s="85"/>
       <c r="V37" s="58"/>
       <c r="W37" s="80"/>
       <c r="X37" s="58"/>
       <c r="Y37" s="58"/>
       <c r="Z37" s="58"/>
-      <c r="AA37" s="6"/>
-      <c r="AB37" s="6"/>
-      <c r="AC37" s="6"/>
-      <c r="AD37" s="10"/>
+      <c r="AA37" s="58">
+        <v>10</v>
+      </c>
+      <c r="AB37" s="58">
+        <v>10</v>
+      </c>
+      <c r="AC37" s="58">
+        <v>10</v>
+      </c>
+      <c r="AD37" s="58"/>
       <c r="AE37" s="36">
-        <f>SUM(H37:AD37)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" s="94">
-        <v>34</v>
-      </c>
-      <c r="B38" s="107" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="102"/>
-      <c r="D38" s="103"/>
+        <v>31</v>
+      </c>
+      <c r="B38" s="195"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="100"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="5"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="108"/>
       <c r="H38" s="57"/>
       <c r="I38" s="58"/>
       <c r="J38" s="58"/>
@@ -3800,27 +3820,25 @@
       <c r="X38" s="58"/>
       <c r="Y38" s="58"/>
       <c r="Z38" s="58"/>
-      <c r="AA38" s="59"/>
-      <c r="AB38" s="59"/>
-      <c r="AC38" s="59"/>
-      <c r="AD38" s="15"/>
+      <c r="AA38" s="58"/>
+      <c r="AB38" s="58"/>
+      <c r="AC38" s="58"/>
+      <c r="AD38" s="58"/>
       <c r="AE38" s="36">
-        <f>SUM(H38:AD38)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" s="94">
-        <v>35</v>
-      </c>
-      <c r="B39" s="191" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="106"/>
-      <c r="D39" s="106"/>
+        <v>32</v>
+      </c>
+      <c r="B39" s="195"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="14"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="108"/>
       <c r="H39" s="57"/>
       <c r="I39" s="58"/>
       <c r="J39" s="58"/>
@@ -3840,29 +3858,31 @@
       <c r="X39" s="58"/>
       <c r="Y39" s="58"/>
       <c r="Z39" s="58"/>
-      <c r="AA39" s="6"/>
-      <c r="AB39" s="6"/>
-      <c r="AC39" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD39" s="10"/>
+      <c r="AA39" s="58"/>
+      <c r="AB39" s="58"/>
+      <c r="AC39" s="58"/>
+      <c r="AD39" s="58"/>
       <c r="AE39" s="36">
-        <f>SUM(H39:AD39)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" s="94">
-        <v>36</v>
-      </c>
-      <c r="B40" s="107" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="102"/>
-      <c r="D40" s="103"/>
+        <v>33</v>
+      </c>
+      <c r="B40" s="109" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="71"/>
+      <c r="F40" s="8">
+        <v>40</v>
+      </c>
+      <c r="G40" s="108" t="s">
+        <v>50</v>
+      </c>
       <c r="H40" s="57"/>
       <c r="I40" s="58"/>
       <c r="J40" s="58"/>
@@ -3870,39 +3890,67 @@
       <c r="L40" s="58"/>
       <c r="M40" s="58"/>
       <c r="N40" s="58"/>
-      <c r="O40" s="58"/>
-      <c r="P40" s="58"/>
-      <c r="Q40" s="58"/>
-      <c r="R40" s="58"/>
-      <c r="S40" s="80"/>
-      <c r="T40" s="58"/>
-      <c r="U40" s="85"/>
-      <c r="V40" s="58"/>
-      <c r="W40" s="80"/>
-      <c r="X40" s="58"/>
-      <c r="Y40" s="58"/>
-      <c r="Z40" s="58"/>
-      <c r="AA40" s="59"/>
-      <c r="AB40" s="59"/>
-      <c r="AC40" s="59"/>
-      <c r="AD40" s="73" t="s">
-        <v>44</v>
-      </c>
+      <c r="O40" s="96">
+        <v>2</v>
+      </c>
+      <c r="P40" s="96">
+        <v>3</v>
+      </c>
+      <c r="Q40" s="96">
+        <v>3</v>
+      </c>
+      <c r="R40" s="96">
+        <v>3</v>
+      </c>
+      <c r="S40" s="97">
+        <v>1</v>
+      </c>
+      <c r="T40" s="96">
+        <v>3</v>
+      </c>
+      <c r="U40" s="98">
+        <v>3</v>
+      </c>
+      <c r="V40" s="96">
+        <v>3</v>
+      </c>
+      <c r="W40" s="97">
+        <v>1</v>
+      </c>
+      <c r="X40" s="96">
+        <v>3</v>
+      </c>
+      <c r="Y40" s="96">
+        <v>3</v>
+      </c>
+      <c r="Z40" s="96">
+        <v>3</v>
+      </c>
+      <c r="AA40" s="99">
+        <v>3</v>
+      </c>
+      <c r="AB40" s="99">
+        <v>3</v>
+      </c>
+      <c r="AC40" s="99">
+        <v>3</v>
+      </c>
+      <c r="AD40" s="15"/>
       <c r="AE40" s="36">
-        <f>SUM(H40:AD40)</f>
-        <v>0</v>
+        <f t="shared" ref="AE40:AE48" si="3">SUM(H40:AD40)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" s="94">
-        <v>37</v>
-      </c>
-      <c r="B41" s="108"/>
-      <c r="C41" s="104"/>
-      <c r="D41" s="105"/>
+        <v>34</v>
+      </c>
+      <c r="B41" s="107"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="104"/>
       <c r="E41" s="4"/>
       <c r="F41" s="56"/>
-      <c r="G41" s="71"/>
+      <c r="G41" s="5"/>
       <c r="H41" s="57"/>
       <c r="I41" s="58"/>
       <c r="J41" s="58"/>
@@ -3914,354 +3962,363 @@
       <c r="P41" s="58"/>
       <c r="Q41" s="58"/>
       <c r="R41" s="58"/>
-      <c r="S41" s="81"/>
-      <c r="T41" s="75"/>
-      <c r="U41" s="86"/>
-      <c r="V41" s="75"/>
-      <c r="W41" s="81"/>
-      <c r="X41" s="75"/>
-      <c r="Y41" s="75"/>
-      <c r="Z41" s="75"/>
-      <c r="AA41" s="76"/>
-      <c r="AB41" s="76"/>
-      <c r="AC41" s="76"/>
+      <c r="S41" s="80"/>
+      <c r="T41" s="58"/>
+      <c r="U41" s="85"/>
+      <c r="V41" s="58"/>
+      <c r="W41" s="80"/>
+      <c r="X41" s="58"/>
+      <c r="Y41" s="58"/>
+      <c r="Z41" s="58"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
       <c r="AD41" s="10"/>
       <c r="AE41" s="36">
-        <f t="shared" ref="AE41:AE55" si="2">SUM(H41:AD41)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" s="94">
-        <v>38</v>
-      </c>
-      <c r="B42" s="107" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="102"/>
-      <c r="D42" s="103"/>
+        <v>35</v>
+      </c>
+      <c r="B42" s="106" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="101"/>
+      <c r="D42" s="102"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="62"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="L42" s="58"/>
+      <c r="M42" s="58"/>
+      <c r="N42" s="58"/>
+      <c r="O42" s="58"/>
+      <c r="P42" s="58"/>
+      <c r="Q42" s="58"/>
+      <c r="R42" s="58"/>
       <c r="S42" s="80"/>
-      <c r="T42" s="74"/>
+      <c r="T42" s="58"/>
       <c r="U42" s="85"/>
-      <c r="V42" s="6"/>
+      <c r="V42" s="58"/>
       <c r="W42" s="80"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
-      <c r="AA42" s="6"/>
-      <c r="AB42" s="6"/>
-      <c r="AC42" s="6"/>
-      <c r="AD42" s="60"/>
+      <c r="X42" s="58"/>
+      <c r="Y42" s="58"/>
+      <c r="Z42" s="58"/>
+      <c r="AA42" s="59"/>
+      <c r="AB42" s="59"/>
+      <c r="AC42" s="59"/>
+      <c r="AD42" s="15"/>
       <c r="AE42" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" s="94">
-        <v>39</v>
-      </c>
-      <c r="B43" s="107" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="102"/>
-      <c r="D43" s="103"/>
+        <v>36</v>
+      </c>
+      <c r="B43" s="110" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="105"/>
+      <c r="D43" s="105"/>
       <c r="E43" s="4"/>
       <c r="F43" s="56"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="62"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="N43" s="58"/>
+      <c r="O43" s="58"/>
+      <c r="P43" s="58"/>
+      <c r="Q43" s="58"/>
+      <c r="R43" s="58"/>
       <c r="S43" s="80"/>
-      <c r="T43" s="74"/>
-      <c r="U43" s="87"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="82"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
+      <c r="T43" s="58"/>
+      <c r="U43" s="85"/>
+      <c r="V43" s="58"/>
+      <c r="W43" s="80"/>
+      <c r="X43" s="58"/>
+      <c r="Y43" s="58"/>
+      <c r="Z43" s="58"/>
       <c r="AA43" s="6"/>
       <c r="AB43" s="6"/>
       <c r="AC43" s="6"/>
-      <c r="AD43" s="60"/>
+      <c r="AD43" s="10"/>
       <c r="AE43" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" s="94">
+        <v>37</v>
+      </c>
+      <c r="B44" s="106" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="101"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
+      <c r="N44" s="58"/>
+      <c r="O44" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="107" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="102"/>
-      <c r="D44" s="103"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="62"/>
+      <c r="P44" s="58"/>
+      <c r="Q44" s="58"/>
+      <c r="R44" s="58"/>
       <c r="S44" s="80"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="74"/>
-      <c r="V44" s="78"/>
+      <c r="T44" s="58"/>
+      <c r="U44" s="85"/>
+      <c r="V44" s="58"/>
       <c r="W44" s="80"/>
-      <c r="X44" s="6"/>
-      <c r="Y44" s="6"/>
-      <c r="Z44" s="6"/>
-      <c r="AA44" s="6"/>
-      <c r="AB44" s="6"/>
-      <c r="AC44" s="6"/>
-      <c r="AD44" s="60"/>
+      <c r="X44" s="58"/>
+      <c r="Y44" s="58"/>
+      <c r="Z44" s="58"/>
+      <c r="AA44" s="59"/>
+      <c r="AB44" s="59"/>
+      <c r="AC44" s="59"/>
+      <c r="AD44" s="15"/>
       <c r="AE44" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" s="94">
-        <v>41</v>
-      </c>
-      <c r="B45" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="102"/>
-      <c r="D45" s="103"/>
+        <v>38</v>
+      </c>
+      <c r="B45" s="110" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="105"/>
+      <c r="D45" s="105"/>
       <c r="E45" s="4"/>
       <c r="F45" s="56"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="62"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="58"/>
+      <c r="P45" s="58"/>
+      <c r="Q45" s="58"/>
+      <c r="R45" s="58"/>
       <c r="S45" s="80"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="74"/>
-      <c r="V45" s="78"/>
+      <c r="T45" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="U45" s="85"/>
+      <c r="V45" s="58"/>
       <c r="W45" s="80"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
+      <c r="X45" s="58"/>
+      <c r="Y45" s="58"/>
+      <c r="Z45" s="58"/>
       <c r="AA45" s="6"/>
       <c r="AB45" s="6"/>
       <c r="AC45" s="6"/>
-      <c r="AD45" s="60"/>
+      <c r="AD45" s="10"/>
       <c r="AE45" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" s="94">
-        <v>42</v>
-      </c>
-      <c r="B46" s="107" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="102"/>
-      <c r="D46" s="103"/>
+        <v>39</v>
+      </c>
+      <c r="B46" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="101"/>
+      <c r="D46" s="102"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="60"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="62"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="58"/>
+      <c r="N46" s="58"/>
+      <c r="O46" s="58"/>
+      <c r="P46" s="58"/>
+      <c r="Q46" s="58"/>
+      <c r="R46" s="58"/>
       <c r="S46" s="80"/>
-      <c r="T46" s="6"/>
+      <c r="T46" s="58"/>
       <c r="U46" s="85"/>
-      <c r="V46" s="6"/>
+      <c r="V46" s="58"/>
       <c r="W46" s="80"/>
-      <c r="X46" s="74"/>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6"/>
-      <c r="AA46" s="6"/>
-      <c r="AB46" s="6"/>
-      <c r="AC46" s="6"/>
-      <c r="AD46" s="60"/>
+      <c r="X46" s="58"/>
+      <c r="Y46" s="58"/>
+      <c r="Z46" s="58"/>
+      <c r="AA46" s="59"/>
+      <c r="AB46" s="59"/>
+      <c r="AC46" s="59"/>
+      <c r="AD46" s="15"/>
       <c r="AE46" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" s="94">
-        <v>43</v>
-      </c>
-      <c r="B47" s="107" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="102"/>
-      <c r="D47" s="103"/>
+        <v>40</v>
+      </c>
+      <c r="B47" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="62"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="58"/>
+      <c r="M47" s="58"/>
+      <c r="N47" s="58"/>
+      <c r="O47" s="58"/>
+      <c r="P47" s="58"/>
+      <c r="Q47" s="58"/>
+      <c r="R47" s="58"/>
       <c r="S47" s="80"/>
-      <c r="T47" s="6"/>
+      <c r="T47" s="58"/>
       <c r="U47" s="85"/>
-      <c r="V47" s="6"/>
+      <c r="V47" s="58"/>
       <c r="W47" s="80"/>
-      <c r="X47" s="78"/>
-      <c r="Y47" s="74"/>
-      <c r="Z47" s="6"/>
+      <c r="X47" s="58"/>
+      <c r="Y47" s="58"/>
+      <c r="Z47" s="58"/>
       <c r="AA47" s="6"/>
       <c r="AB47" s="6"/>
-      <c r="AC47" s="6"/>
-      <c r="AD47" s="60"/>
+      <c r="AC47" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD47" s="10"/>
       <c r="AE47" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" s="94">
-        <v>44</v>
-      </c>
-      <c r="B48" s="107" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="102"/>
-      <c r="D48" s="103"/>
+        <v>41</v>
+      </c>
+      <c r="B48" s="106" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="101"/>
+      <c r="D48" s="102"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="56"/>
+      <c r="F48" s="9"/>
       <c r="G48" s="71"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="62"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="58"/>
+      <c r="N48" s="58"/>
+      <c r="O48" s="58"/>
+      <c r="P48" s="58"/>
+      <c r="Q48" s="58"/>
+      <c r="R48" s="58"/>
       <c r="S48" s="80"/>
-      <c r="T48" s="6"/>
+      <c r="T48" s="58"/>
       <c r="U48" s="85"/>
-      <c r="V48" s="6"/>
+      <c r="V48" s="58"/>
       <c r="W48" s="80"/>
-      <c r="X48" s="6"/>
-      <c r="Y48" s="78"/>
-      <c r="Z48" s="74"/>
-      <c r="AA48" s="6"/>
-      <c r="AB48" s="6"/>
-      <c r="AC48" s="6"/>
-      <c r="AD48" s="60"/>
+      <c r="X48" s="58"/>
+      <c r="Y48" s="58"/>
+      <c r="Z48" s="58"/>
+      <c r="AA48" s="59"/>
+      <c r="AB48" s="59"/>
+      <c r="AC48" s="59"/>
+      <c r="AD48" s="73" t="s">
+        <v>40</v>
+      </c>
       <c r="AE48" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" s="94">
-        <v>45</v>
-      </c>
-      <c r="B49" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="102"/>
-      <c r="D49" s="103"/>
+        <v>42</v>
+      </c>
+      <c r="B49" s="107"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="104"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="61"/>
+      <c r="F49" s="56"/>
       <c r="G49" s="71"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="62"/>
-      <c r="S49" s="80"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="85"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="80"/>
-      <c r="X49" s="6"/>
-      <c r="Y49" s="78"/>
-      <c r="Z49" s="74"/>
-      <c r="AA49" s="6"/>
-      <c r="AB49" s="6"/>
-      <c r="AC49" s="6"/>
-      <c r="AD49" s="60"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="58"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="58"/>
+      <c r="P49" s="58"/>
+      <c r="Q49" s="58"/>
+      <c r="R49" s="58"/>
+      <c r="S49" s="81"/>
+      <c r="T49" s="75"/>
+      <c r="U49" s="86"/>
+      <c r="V49" s="75"/>
+      <c r="W49" s="81"/>
+      <c r="X49" s="75"/>
+      <c r="Y49" s="75"/>
+      <c r="Z49" s="75"/>
+      <c r="AA49" s="76"/>
+      <c r="AB49" s="76"/>
+      <c r="AC49" s="76"/>
+      <c r="AD49" s="10"/>
       <c r="AE49" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AE49:AE63" si="4">SUM(H49:AD49)</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" s="94">
-        <v>46</v>
-      </c>
-      <c r="B50" s="107" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="102"/>
-      <c r="D50" s="103"/>
+        <v>43</v>
+      </c>
+      <c r="B50" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="101"/>
+      <c r="D50" s="102"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="56"/>
+      <c r="F50" s="61"/>
       <c r="G50" s="71"/>
       <c r="H50" s="60"/>
       <c r="I50" s="6"/>
@@ -4275,33 +4332,33 @@
       <c r="Q50" s="6"/>
       <c r="R50" s="62"/>
       <c r="S50" s="80"/>
-      <c r="T50" s="6"/>
+      <c r="T50" s="74"/>
       <c r="U50" s="85"/>
       <c r="V50" s="6"/>
       <c r="W50" s="80"/>
       <c r="X50" s="6"/>
-      <c r="Y50" s="78"/>
-      <c r="Z50" s="74"/>
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
       <c r="AA50" s="6"/>
       <c r="AB50" s="6"/>
       <c r="AC50" s="6"/>
       <c r="AD50" s="60"/>
       <c r="AE50" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" s="94">
-        <v>47</v>
-      </c>
-      <c r="B51" s="107" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51" s="102"/>
-      <c r="D51" s="103"/>
+        <v>44</v>
+      </c>
+      <c r="B51" s="106" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="101"/>
+      <c r="D51" s="102"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="9"/>
+      <c r="F51" s="56"/>
       <c r="G51" s="71"/>
       <c r="H51" s="60"/>
       <c r="I51" s="6"/>
@@ -4315,32 +4372,33 @@
       <c r="Q51" s="6"/>
       <c r="R51" s="62"/>
       <c r="S51" s="80"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="85"/>
+      <c r="T51" s="74"/>
+      <c r="U51" s="87"/>
       <c r="V51" s="6"/>
-      <c r="W51" s="80"/>
+      <c r="W51" s="82"/>
       <c r="X51" s="6"/>
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
-      <c r="AB51" s="74"/>
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="6"/>
       <c r="AC51" s="6"/>
       <c r="AD51" s="60"/>
       <c r="AE51" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" s="94">
-        <v>48</v>
-      </c>
-      <c r="B52" s="107" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="102"/>
-      <c r="D52" s="103"/>
+        <v>45</v>
+      </c>
+      <c r="B52" s="106" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="101"/>
+      <c r="D52" s="102"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="56"/>
+      <c r="F52" s="9"/>
       <c r="G52" s="71"/>
       <c r="H52" s="60"/>
       <c r="I52" s="6"/>
@@ -4355,32 +4413,32 @@
       <c r="R52" s="62"/>
       <c r="S52" s="80"/>
       <c r="T52" s="6"/>
-      <c r="U52" s="85"/>
-      <c r="V52" s="6"/>
+      <c r="U52" s="74"/>
+      <c r="V52" s="78"/>
       <c r="W52" s="80"/>
       <c r="X52" s="6"/>
       <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
       <c r="AA52" s="6"/>
-      <c r="AB52" s="74"/>
+      <c r="AB52" s="6"/>
       <c r="AC52" s="6"/>
       <c r="AD52" s="60"/>
       <c r="AE52" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" s="94">
-        <v>49</v>
-      </c>
-      <c r="B53" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" s="102"/>
-      <c r="D53" s="103"/>
+        <v>46</v>
+      </c>
+      <c r="B53" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="101"/>
+      <c r="D53" s="102"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="61"/>
+      <c r="F53" s="56"/>
       <c r="G53" s="71"/>
       <c r="H53" s="60"/>
       <c r="I53" s="6"/>
@@ -4392,33 +4450,36 @@
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="83"/>
-      <c r="T53" s="13"/>
-      <c r="U53" s="88"/>
-      <c r="V53" s="13"/>
-      <c r="W53" s="83"/>
-      <c r="X53" s="13"/>
-      <c r="Y53" s="13"/>
-      <c r="Z53" s="13"/>
-      <c r="AA53" s="13"/>
-      <c r="AB53" s="13"/>
-      <c r="AC53" s="77"/>
+      <c r="R53" s="62"/>
+      <c r="S53" s="80"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="74"/>
+      <c r="V53" s="78"/>
+      <c r="W53" s="80"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="6"/>
+      <c r="AD53" s="60"/>
       <c r="AE53" s="36">
-        <f>SUM(H53:AC53)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54" s="94">
-        <v>50</v>
-      </c>
-      <c r="B54" s="108"/>
-      <c r="C54" s="104"/>
-      <c r="D54" s="105"/>
+        <v>47</v>
+      </c>
+      <c r="B54" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="101"/>
+      <c r="D54" s="102"/>
       <c r="E54" s="4"/>
       <c r="F54" s="56"/>
-      <c r="G54" s="72"/>
+      <c r="G54" s="71"/>
       <c r="H54" s="60"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
@@ -4429,254 +4490,562 @@
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
+      <c r="R54" s="62"/>
       <c r="S54" s="80"/>
       <c r="T54" s="6"/>
       <c r="U54" s="85"/>
       <c r="V54" s="6"/>
       <c r="W54" s="80"/>
-      <c r="X54" s="6"/>
+      <c r="X54" s="74"/>
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
       <c r="AA54" s="6"/>
       <c r="AB54" s="6"/>
       <c r="AC54" s="6"/>
-      <c r="AD54" s="6"/>
+      <c r="AD54" s="60"/>
       <c r="AE54" s="36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A55" s="94">
+        <v>48</v>
+      </c>
+      <c r="B55" s="106" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="101"/>
+      <c r="D55" s="102"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="62"/>
+      <c r="S55" s="80"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="85"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="80"/>
+      <c r="X55" s="78"/>
+      <c r="Y55" s="74"/>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="6"/>
+      <c r="AD55" s="60"/>
+      <c r="AE55" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A56" s="94">
+        <v>49</v>
+      </c>
+      <c r="B56" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="101"/>
+      <c r="D56" s="102"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="62"/>
+      <c r="S56" s="80"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="85"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="80"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="78"/>
+      <c r="Z56" s="74"/>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="6"/>
+      <c r="AD56" s="60"/>
+      <c r="AE56" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A57" s="94">
+        <v>50</v>
+      </c>
+      <c r="B57" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="101"/>
+      <c r="D57" s="102"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="62"/>
+      <c r="S57" s="80"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="85"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="80"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="78"/>
+      <c r="Z57" s="74"/>
+      <c r="AA57" s="6"/>
+      <c r="AB57" s="6"/>
+      <c r="AC57" s="6"/>
+      <c r="AD57" s="60"/>
+      <c r="AE57" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A58" s="94">
         <v>51</v>
       </c>
-      <c r="B55" s="192"/>
-      <c r="C55" s="193"/>
-      <c r="D55" s="194"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="68"/>
-      <c r="I55" s="69"/>
-      <c r="J55" s="69"/>
-      <c r="K55" s="69"/>
-      <c r="L55" s="69"/>
-      <c r="M55" s="69"/>
-      <c r="N55" s="69"/>
-      <c r="O55" s="69"/>
-      <c r="P55" s="69"/>
-      <c r="Q55" s="69"/>
-      <c r="R55" s="69"/>
-      <c r="S55" s="84"/>
-      <c r="T55" s="69"/>
-      <c r="U55" s="89"/>
-      <c r="V55" s="69"/>
-      <c r="W55" s="84"/>
-      <c r="X55" s="69"/>
-      <c r="Y55" s="69"/>
-      <c r="Z55" s="69"/>
-      <c r="AA55" s="69"/>
-      <c r="AB55" s="69"/>
-      <c r="AC55" s="69"/>
-      <c r="AD55" s="70"/>
-      <c r="AE55" s="36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="93"/>
-      <c r="B56" s="135" t="s">
+      <c r="B58" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="101"/>
+      <c r="D58" s="102"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="60"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="62"/>
+      <c r="S58" s="80"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="85"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="80"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="78"/>
+      <c r="Z58" s="74"/>
+      <c r="AA58" s="6"/>
+      <c r="AB58" s="6"/>
+      <c r="AC58" s="6"/>
+      <c r="AD58" s="60"/>
+      <c r="AE58" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A59" s="94">
+        <v>52</v>
+      </c>
+      <c r="B59" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="101"/>
+      <c r="D59" s="102"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="62"/>
+      <c r="S59" s="80"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="85"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="80"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+      <c r="AB59" s="74"/>
+      <c r="AC59" s="6"/>
+      <c r="AD59" s="60"/>
+      <c r="AE59" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A60" s="94">
+        <v>53</v>
+      </c>
+      <c r="B60" s="106" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="101"/>
+      <c r="D60" s="102"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="60"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="62"/>
+      <c r="S60" s="80"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="85"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="80"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
+      <c r="AA60" s="6"/>
+      <c r="AB60" s="74"/>
+      <c r="AC60" s="6"/>
+      <c r="AD60" s="60"/>
+      <c r="AE60" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A61" s="94">
+        <v>54</v>
+      </c>
+      <c r="B61" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="101"/>
+      <c r="D61" s="102"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="83"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="88"/>
+      <c r="V61" s="13"/>
+      <c r="W61" s="83"/>
+      <c r="X61" s="13"/>
+      <c r="Y61" s="13"/>
+      <c r="Z61" s="13"/>
+      <c r="AA61" s="13"/>
+      <c r="AB61" s="13"/>
+      <c r="AC61" s="77"/>
+      <c r="AE61" s="36">
+        <f>SUM(H61:AC61)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A62" s="94">
+        <v>55</v>
+      </c>
+      <c r="B62" s="107"/>
+      <c r="C62" s="103"/>
+      <c r="D62" s="104"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="60"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="80"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="85"/>
+      <c r="V62" s="6"/>
+      <c r="W62" s="80"/>
+      <c r="X62" s="6"/>
+      <c r="Y62" s="6"/>
+      <c r="Z62" s="6"/>
+      <c r="AA62" s="6"/>
+      <c r="AB62" s="6"/>
+      <c r="AC62" s="6"/>
+      <c r="AD62" s="6"/>
+      <c r="AE62" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="94">
+        <v>56</v>
+      </c>
+      <c r="B63" s="111"/>
+      <c r="C63" s="112"/>
+      <c r="D63" s="113"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="69"/>
+      <c r="J63" s="69"/>
+      <c r="K63" s="69"/>
+      <c r="L63" s="69"/>
+      <c r="M63" s="69"/>
+      <c r="N63" s="69"/>
+      <c r="O63" s="69"/>
+      <c r="P63" s="69"/>
+      <c r="Q63" s="69"/>
+      <c r="R63" s="69"/>
+      <c r="S63" s="84"/>
+      <c r="T63" s="69"/>
+      <c r="U63" s="89"/>
+      <c r="V63" s="69"/>
+      <c r="W63" s="84"/>
+      <c r="X63" s="69"/>
+      <c r="Y63" s="69"/>
+      <c r="Z63" s="69"/>
+      <c r="AA63" s="69"/>
+      <c r="AB63" s="69"/>
+      <c r="AC63" s="69"/>
+      <c r="AD63" s="70"/>
+      <c r="AE63" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="93"/>
+      <c r="B64" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="C56" s="135"/>
-      <c r="D56" s="136"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="38">
-        <f>SUM(F8:F40)</f>
+      <c r="C64" s="114"/>
+      <c r="D64" s="115"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="38">
+        <f>SUM(F8:F48)</f>
         <v>1380</v>
       </c>
-      <c r="G56" s="38"/>
-      <c r="H56" s="39">
-        <f>SUM(H8:H55)</f>
-        <v>0</v>
-      </c>
-      <c r="I56" s="39">
-        <f>SUM(I8:I55)</f>
-        <v>0</v>
-      </c>
-      <c r="J56" s="39">
-        <f>SUM(J8:J55)</f>
-        <v>0</v>
-      </c>
-      <c r="K56" s="39">
-        <f>SUM(K8:K55)</f>
-        <v>0</v>
-      </c>
-      <c r="L56" s="39">
-        <f>SUM(L8:L55)</f>
-        <v>0</v>
-      </c>
-      <c r="M56" s="39">
-        <f>SUM(M8:M55)</f>
-        <v>0</v>
-      </c>
-      <c r="N56" s="39">
-        <f>SUM(N8:N55)</f>
-        <v>0</v>
-      </c>
-      <c r="O56" s="39">
-        <f>SUM(O8:O55)</f>
+      <c r="G64" s="38"/>
+      <c r="H64" s="39">
+        <f t="shared" ref="H64:AD64" si="5">SUM(H8:H63)</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N64" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O64" s="39">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="P56" s="39">
-        <f>SUM(P8:P55)</f>
+      <c r="P64" s="39">
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="Q56" s="39">
-        <f>SUM(Q8:Q55)</f>
+      <c r="Q64" s="39">
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="R56" s="39">
-        <f>SUM(R8:R55)</f>
-        <v>85</v>
-      </c>
-      <c r="S56" s="39">
-        <f>SUM(S8:S55)</f>
-        <v>74</v>
-      </c>
-      <c r="T56" s="39">
-        <f>SUM(T8:T55)</f>
-        <v>193</v>
-      </c>
-      <c r="U56" s="39">
-        <f>SUM(U8:U55)</f>
-        <v>123</v>
-      </c>
-      <c r="V56" s="39">
-        <f>SUM(V8:V55)</f>
+      <c r="R64" s="39">
+        <f t="shared" si="5"/>
+        <v>140</v>
+      </c>
+      <c r="S64" s="39">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="T64" s="39">
+        <f t="shared" si="5"/>
+        <v>218</v>
+      </c>
+      <c r="U64" s="39">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="V64" s="39">
+        <f t="shared" si="5"/>
+        <v>163</v>
+      </c>
+      <c r="W64" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X64" s="39">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="Y64" s="39">
+        <f t="shared" si="5"/>
+        <v>168</v>
+      </c>
+      <c r="Z64" s="39">
+        <f t="shared" si="5"/>
         <v>148</v>
       </c>
-      <c r="W56" s="39">
-        <f>SUM(W8:W55)</f>
+      <c r="AA64" s="39">
+        <f t="shared" si="5"/>
+        <v>133</v>
+      </c>
+      <c r="AB64" s="39">
+        <f t="shared" si="5"/>
+        <v>143</v>
+      </c>
+      <c r="AC64" s="39">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="AD64" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE64" s="33">
+        <f>SUM(H64:AD64)</f>
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="65" spans="8:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H65" s="32">
+        <v>1</v>
+      </c>
+      <c r="I65" s="33">
+        <v>2</v>
+      </c>
+      <c r="J65" s="33">
+        <v>3</v>
+      </c>
+      <c r="K65" s="33">
+        <v>4</v>
+      </c>
+      <c r="L65" s="33">
+        <v>5</v>
+      </c>
+      <c r="M65" s="33">
+        <v>6</v>
+      </c>
+      <c r="N65" s="33">
+        <v>7</v>
+      </c>
+      <c r="O65" s="33">
+        <v>8</v>
+      </c>
+      <c r="P65" s="33">
+        <v>9</v>
+      </c>
+      <c r="Q65" s="33">
+        <v>10</v>
+      </c>
+      <c r="R65" s="33">
+        <v>11</v>
+      </c>
+      <c r="S65" s="33">
+        <v>12</v>
+      </c>
+      <c r="T65" s="33">
+        <v>13</v>
+      </c>
+      <c r="U65" s="33">
+        <v>14</v>
+      </c>
+      <c r="V65" s="33">
+        <v>15</v>
+      </c>
+      <c r="W65" s="33">
         <v>16</v>
       </c>
-      <c r="X56" s="39">
-        <f>SUM(X8:X55)</f>
-        <v>108</v>
-      </c>
-      <c r="Y56" s="39">
-        <f>SUM(Y8:Y55)</f>
-        <v>153</v>
-      </c>
-      <c r="Z56" s="39">
-        <f>SUM(Z8:Z55)</f>
-        <v>173</v>
-      </c>
-      <c r="AA56" s="39">
-        <f>SUM(AA8:AA55)</f>
-        <v>133</v>
-      </c>
-      <c r="AB56" s="39">
-        <f>SUM(AB8:AB55)</f>
-        <v>123</v>
-      </c>
-      <c r="AC56" s="39">
-        <f>SUM(AC8:AC55)</f>
-        <v>3</v>
-      </c>
-      <c r="AD56" s="39">
-        <f>SUM(AD8:AD55)</f>
-        <v>0</v>
-      </c>
-      <c r="AE56" s="33">
-        <f>SUM(H56:AD56)</f>
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="57" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H57" s="32">
-        <v>1</v>
-      </c>
-      <c r="I57" s="33">
-        <v>2</v>
-      </c>
-      <c r="J57" s="33">
-        <v>3</v>
-      </c>
-      <c r="K57" s="33">
-        <v>4</v>
-      </c>
-      <c r="L57" s="33">
-        <v>5</v>
-      </c>
-      <c r="M57" s="33">
-        <v>6</v>
-      </c>
-      <c r="N57" s="33">
-        <v>7</v>
-      </c>
-      <c r="O57" s="33">
-        <v>8</v>
-      </c>
-      <c r="P57" s="33">
-        <v>9</v>
-      </c>
-      <c r="Q57" s="33">
-        <v>10</v>
-      </c>
-      <c r="R57" s="33">
-        <v>11</v>
-      </c>
-      <c r="S57" s="33">
-        <v>12</v>
-      </c>
-      <c r="T57" s="33">
-        <v>13</v>
-      </c>
-      <c r="U57" s="33">
-        <v>14</v>
-      </c>
-      <c r="V57" s="33">
-        <v>15</v>
-      </c>
-      <c r="W57" s="33">
-        <v>16</v>
-      </c>
-      <c r="X57" s="33">
+      <c r="X65" s="33">
         <v>17</v>
       </c>
-      <c r="Y57" s="33">
+      <c r="Y65" s="33">
         <v>18</v>
       </c>
-      <c r="Z57" s="33">
+      <c r="Z65" s="33">
         <v>19</v>
       </c>
-      <c r="AA57" s="33">
+      <c r="AA65" s="33">
         <v>20</v>
       </c>
-      <c r="AB57" s="33">
+      <c r="AB65" s="33">
         <v>21</v>
       </c>
-      <c r="AC57" s="33">
+      <c r="AC65" s="33">
         <v>22</v>
       </c>
-      <c r="AD57" s="33">
+      <c r="AD65" s="33">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="24">
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="D2:AE2"/>
     <mergeCell ref="H6:AE6"/>
@@ -4693,6 +5062,14 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4724,240 +5101,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="159"/>
-      <c r="O1" s="159"/>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="159"/>
-      <c r="S1" s="159"/>
-      <c r="T1" s="159"/>
-      <c r="U1" s="159"/>
-      <c r="V1" s="159"/>
-      <c r="W1" s="159"/>
-      <c r="X1" s="159"/>
-      <c r="Y1" s="159"/>
-      <c r="Z1" s="159"/>
-      <c r="AA1" s="159"/>
-      <c r="AB1" s="159"/>
-      <c r="AC1" s="159"/>
-      <c r="AD1" s="160"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="172"/>
+      <c r="L1" s="172"/>
+      <c r="M1" s="172"/>
+      <c r="N1" s="172"/>
+      <c r="O1" s="172"/>
+      <c r="P1" s="172"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="172"/>
+      <c r="S1" s="172"/>
+      <c r="T1" s="172"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="172"/>
+      <c r="W1" s="172"/>
+      <c r="X1" s="172"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="172"/>
+      <c r="AA1" s="172"/>
+      <c r="AB1" s="172"/>
+      <c r="AC1" s="172"/>
+      <c r="AD1" s="173"/>
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="164"/>
+      <c r="B2" s="177"/>
       <c r="C2" s="43"/>
-      <c r="D2" s="161" t="str">
+      <c r="D2" s="174" t="str">
         <f>Basplan!D2</f>
         <v>Undsättningsrobot</v>
       </c>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="161"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="161"/>
-      <c r="Q2" s="161"/>
-      <c r="R2" s="161"/>
-      <c r="S2" s="161"/>
-      <c r="T2" s="161"/>
-      <c r="U2" s="161"/>
-      <c r="V2" s="161"/>
-      <c r="W2" s="161"/>
-      <c r="X2" s="161"/>
-      <c r="Y2" s="161"/>
-      <c r="Z2" s="161"/>
-      <c r="AA2" s="161"/>
-      <c r="AB2" s="161"/>
-      <c r="AC2" s="161"/>
-      <c r="AD2" s="162"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="174"/>
+      <c r="U2" s="174"/>
+      <c r="V2" s="174"/>
+      <c r="W2" s="174"/>
+      <c r="X2" s="174"/>
+      <c r="Y2" s="174"/>
+      <c r="Z2" s="174"/>
+      <c r="AA2" s="174"/>
+      <c r="AB2" s="174"/>
+      <c r="AC2" s="174"/>
+      <c r="AD2" s="175"/>
     </row>
     <row r="3" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="166"/>
+      <c r="B3" s="179"/>
       <c r="C3" s="44"/>
-      <c r="D3" s="167">
+      <c r="D3" s="180">
         <f>Basplan!D3</f>
         <v>2</v>
       </c>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="130" t="s">
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="124">
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="139">
         <v>42051</v>
       </c>
-      <c r="M3" s="171"/>
-      <c r="N3" s="171"/>
-      <c r="O3" s="171"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="171"/>
-      <c r="S3" s="171"/>
-      <c r="T3" s="171"/>
-      <c r="U3" s="171"/>
-      <c r="V3" s="171"/>
-      <c r="W3" s="171"/>
-      <c r="X3" s="171"/>
-      <c r="Y3" s="171"/>
-      <c r="Z3" s="171"/>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="171"/>
-      <c r="AC3" s="171"/>
-      <c r="AD3" s="172"/>
+      <c r="M3" s="184"/>
+      <c r="N3" s="184"/>
+      <c r="O3" s="184"/>
+      <c r="P3" s="184"/>
+      <c r="Q3" s="184"/>
+      <c r="R3" s="184"/>
+      <c r="S3" s="184"/>
+      <c r="T3" s="184"/>
+      <c r="U3" s="184"/>
+      <c r="V3" s="184"/>
+      <c r="W3" s="184"/>
+      <c r="X3" s="184"/>
+      <c r="Y3" s="184"/>
+      <c r="Z3" s="184"/>
+      <c r="AA3" s="184"/>
+      <c r="AB3" s="184"/>
+      <c r="AC3" s="184"/>
+      <c r="AD3" s="185"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="174" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="184"/>
+      <c r="A4" s="154" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="164"/>
       <c r="C4" s="45"/>
-      <c r="D4" s="185" t="str">
+      <c r="D4" s="165" t="str">
         <f>Basplan!D4</f>
         <v>Kent Palmkvist</v>
       </c>
-      <c r="E4" s="186"/>
-      <c r="F4" s="186"/>
-      <c r="G4" s="187"/>
-      <c r="H4" s="174" t="s">
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="175"/>
-      <c r="J4" s="175"/>
-      <c r="K4" s="175"/>
-      <c r="L4" s="176" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" s="177"/>
-      <c r="N4" s="177"/>
-      <c r="O4" s="177"/>
-      <c r="P4" s="177"/>
-      <c r="Q4" s="177"/>
-      <c r="R4" s="177"/>
-      <c r="S4" s="177"/>
-      <c r="T4" s="177"/>
-      <c r="U4" s="177"/>
-      <c r="V4" s="177"/>
-      <c r="W4" s="177"/>
-      <c r="X4" s="177"/>
-      <c r="Y4" s="177"/>
-      <c r="Z4" s="177"/>
-      <c r="AA4" s="177"/>
-      <c r="AB4" s="177"/>
-      <c r="AC4" s="177"/>
-      <c r="AD4" s="178"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="156" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="157"/>
+      <c r="N4" s="157"/>
+      <c r="O4" s="157"/>
+      <c r="P4" s="157"/>
+      <c r="Q4" s="157"/>
+      <c r="R4" s="157"/>
+      <c r="S4" s="157"/>
+      <c r="T4" s="157"/>
+      <c r="U4" s="157"/>
+      <c r="V4" s="157"/>
+      <c r="W4" s="157"/>
+      <c r="X4" s="157"/>
+      <c r="Y4" s="157"/>
+      <c r="Z4" s="157"/>
+      <c r="AA4" s="157"/>
+      <c r="AB4" s="157"/>
+      <c r="AC4" s="157"/>
+      <c r="AD4" s="158"/>
     </row>
     <row r="5" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="189"/>
+      <c r="B5" s="170"/>
       <c r="C5" s="46"/>
-      <c r="D5" s="155" t="str">
+      <c r="D5" s="189" t="str">
         <f>Basplan!D5</f>
         <v>TSEA56</v>
       </c>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="148"/>
-      <c r="K5" s="148"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="148"/>
-      <c r="N5" s="148"/>
-      <c r="O5" s="148"/>
-      <c r="P5" s="148"/>
-      <c r="Q5" s="148"/>
-      <c r="R5" s="148"/>
-      <c r="S5" s="148"/>
-      <c r="T5" s="148"/>
-      <c r="U5" s="148"/>
-      <c r="V5" s="148"/>
-      <c r="W5" s="148"/>
-      <c r="X5" s="148"/>
-      <c r="Y5" s="148"/>
-      <c r="Z5" s="148"/>
-      <c r="AA5" s="148"/>
-      <c r="AB5" s="148"/>
-      <c r="AC5" s="148"/>
-      <c r="AD5" s="149"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="190"/>
+      <c r="G5" s="191"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="146"/>
+      <c r="N5" s="146"/>
+      <c r="O5" s="146"/>
+      <c r="P5" s="146"/>
+      <c r="Q5" s="146"/>
+      <c r="R5" s="146"/>
+      <c r="S5" s="146"/>
+      <c r="T5" s="146"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="146"/>
+      <c r="W5" s="146"/>
+      <c r="X5" s="146"/>
+      <c r="Y5" s="146"/>
+      <c r="Z5" s="146"/>
+      <c r="AA5" s="146"/>
+      <c r="AB5" s="146"/>
+      <c r="AC5" s="146"/>
+      <c r="AD5" s="147"/>
     </row>
     <row r="6" spans="1:31" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="182" t="s">
+      <c r="A6" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="183"/>
-      <c r="C6" s="183"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="183"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="179" t="s">
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="180"/>
-      <c r="I6" s="180"/>
-      <c r="J6" s="180"/>
-      <c r="K6" s="180"/>
-      <c r="L6" s="180"/>
-      <c r="M6" s="180"/>
-      <c r="N6" s="180"/>
-      <c r="O6" s="180"/>
-      <c r="P6" s="180"/>
-      <c r="Q6" s="180"/>
-      <c r="R6" s="180"/>
-      <c r="S6" s="180"/>
-      <c r="T6" s="180"/>
-      <c r="U6" s="180"/>
-      <c r="V6" s="180"/>
-      <c r="W6" s="180"/>
-      <c r="X6" s="180"/>
-      <c r="Y6" s="180"/>
-      <c r="Z6" s="180"/>
-      <c r="AA6" s="180"/>
-      <c r="AB6" s="180"/>
-      <c r="AC6" s="180"/>
-      <c r="AD6" s="181"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="160"/>
+      <c r="K6" s="160"/>
+      <c r="L6" s="160"/>
+      <c r="M6" s="160"/>
+      <c r="N6" s="160"/>
+      <c r="O6" s="160"/>
+      <c r="P6" s="160"/>
+      <c r="Q6" s="160"/>
+      <c r="R6" s="160"/>
+      <c r="S6" s="160"/>
+      <c r="T6" s="160"/>
+      <c r="U6" s="160"/>
+      <c r="V6" s="160"/>
+      <c r="W6" s="160"/>
+      <c r="X6" s="160"/>
+      <c r="Y6" s="160"/>
+      <c r="Z6" s="160"/>
+      <c r="AA6" s="160"/>
+      <c r="AB6" s="160"/>
+      <c r="AC6" s="160"/>
+      <c r="AD6" s="161"/>
     </row>
     <row r="7" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29"/>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
       <c r="G7" s="31">
         <f>Basplan!H7</f>
         <v>1</v>
@@ -5056,13 +5433,13 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="52"/>
-      <c r="B8" s="132" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="134"/>
+      <c r="B8" s="186" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="187"/>
+      <c r="D8" s="187"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="188"/>
       <c r="G8" s="64"/>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
@@ -5099,13 +5476,13 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="52"/>
-      <c r="B9" s="110" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="112"/>
+      <c r="B9" s="151" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="152"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="168"/>
       <c r="G9" s="66"/>
       <c r="H9" s="67"/>
       <c r="I9" s="67"/>
@@ -5142,13 +5519,13 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="52"/>
-      <c r="B10" s="110" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="112"/>
+      <c r="B10" s="151" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="152"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="168"/>
       <c r="G10" s="66"/>
       <c r="H10" s="67"/>
       <c r="I10" s="67"/>
@@ -5185,13 +5562,13 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="52"/>
-      <c r="B11" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="112"/>
+      <c r="B11" s="151" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="152"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="168"/>
       <c r="G11" s="66"/>
       <c r="H11" s="67"/>
       <c r="I11" s="67"/>
@@ -5228,13 +5605,13 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="52"/>
-      <c r="B12" s="110" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="112"/>
+      <c r="B12" s="151" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="152"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="168"/>
       <c r="G12" s="66"/>
       <c r="H12" s="67"/>
       <c r="I12" s="67"/>
@@ -5272,13 +5649,13 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="52"/>
-      <c r="B13" s="110" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
+      <c r="B13" s="151" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="152"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="152"/>
       <c r="G13" s="66"/>
       <c r="H13" s="67"/>
       <c r="I13" s="67"/>
@@ -5315,11 +5692,11 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="52"/>
-      <c r="B14" s="110"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
       <c r="G14" s="18"/>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
@@ -5350,11 +5727,11 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="52"/>
-      <c r="B15" s="110"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
       <c r="G15" s="18"/>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
@@ -5385,11 +5762,11 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="52"/>
-      <c r="B16" s="110"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
       <c r="G16" s="18"/>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -5420,11 +5797,11 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="52"/>
-      <c r="B17" s="110"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
+      <c r="B17" s="151"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
       <c r="G17" s="18"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -5455,11 +5832,11 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="52"/>
-      <c r="B18" s="110"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
+      <c r="B18" s="151"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
       <c r="G18" s="18"/>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -5490,11 +5867,11 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="52"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
+      <c r="B19" s="151"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
       <c r="G19" s="18"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -5525,11 +5902,11 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="52"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
+      <c r="B20" s="151"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
       <c r="G20" s="18"/>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -5560,11 +5937,11 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="52"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
+      <c r="B21" s="151"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
       <c r="G21" s="18"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -5595,11 +5972,11 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="52"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
       <c r="G22" s="18"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -5630,11 +6007,11 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="52"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
+      <c r="B23" s="151"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
       <c r="G23" s="18"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -5665,11 +6042,11 @@
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="52"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
       <c r="G24" s="18"/>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -5700,11 +6077,11 @@
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="52"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
+      <c r="B25" s="151"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="152"/>
       <c r="G25" s="18"/>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -5735,11 +6112,11 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="52"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
+      <c r="B26" s="151"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
       <c r="G26" s="18"/>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -5770,11 +6147,11 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="52"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
+      <c r="B27" s="151"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="152"/>
       <c r="G27" s="18"/>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -5805,11 +6182,11 @@
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="53"/>
-      <c r="B28" s="110"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="111"/>
+      <c r="B28" s="151"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
       <c r="G28" s="18"/>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -5840,11 +6217,11 @@
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="53"/>
-      <c r="B29" s="110"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
+      <c r="B29" s="151"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="152"/>
       <c r="G29" s="18"/>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -5875,11 +6252,11 @@
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="52"/>
-      <c r="B30" s="110"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
+      <c r="B30" s="151"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
       <c r="G30" s="18"/>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -5910,11 +6287,11 @@
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="52"/>
-      <c r="B31" s="110"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
+      <c r="B31" s="151"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="152"/>
       <c r="G31" s="18"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -5945,11 +6322,11 @@
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="52"/>
-      <c r="B32" s="110"/>
-      <c r="C32" s="111"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
+      <c r="B32" s="151"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="152"/>
       <c r="G32" s="18"/>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -5980,11 +6357,11 @@
     </row>
     <row r="33" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52"/>
-      <c r="B33" s="154"/>
-      <c r="C33" s="153"/>
-      <c r="D33" s="153"/>
-      <c r="E33" s="153"/>
-      <c r="F33" s="153"/>
+      <c r="B33" s="192"/>
+      <c r="C33" s="193"/>
+      <c r="D33" s="193"/>
+      <c r="E33" s="193"/>
+      <c r="F33" s="193"/>
       <c r="G33" s="21"/>
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
@@ -6015,13 +6392,13 @@
     </row>
     <row r="34" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="31"/>
-      <c r="B34" s="135" t="s">
+      <c r="B34" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="135"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="135"/>
-      <c r="F34" s="135"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
       <c r="G34" s="54">
         <f>SUM(G8:G33)</f>
         <v>0</v>
@@ -6122,6 +6499,34 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="44">
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="D2:AD2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:AD3"/>
     <mergeCell ref="B30:F30"/>
     <mergeCell ref="H5:AD5"/>
     <mergeCell ref="H4:K4"/>
@@ -6138,34 +6543,6 @@
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A1:AD1"/>
-    <mergeCell ref="D2:AD2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:AD3"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B29:F29"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.71" top="1" bottom="1" header="0.5" footer="0.61"/>

--- a/DOKUMENT/TIDPLANERING/tidplan_v0.3.xlsx
+++ b/DOKUMENT/TIDPLANERING/tidplan_v0.3.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Måns\Documents\GitHub\TSEA56Grupp2\DOKUMENT\TIDPLANERING\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="Basplan" sheetId="1" r:id="rId1"/>
     <sheet name="Summering TID" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1384,66 +1379,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1494,6 +1434,20 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1509,6 +1463,52 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1516,6 +1516,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -1562,95 +1640,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1716,7 +1711,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1751,7 +1746,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1965,8 +1960,8 @@
   </sheetPr>
   <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="AC61" sqref="AC61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1985,211 +1980,211 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="129"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="129"/>
-      <c r="U1" s="129"/>
-      <c r="V1" s="129"/>
-      <c r="W1" s="129"/>
-      <c r="X1" s="129"/>
-      <c r="Y1" s="129"/>
-      <c r="Z1" s="129"/>
-      <c r="AA1" s="129"/>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="129"/>
-      <c r="AD1" s="129"/>
-      <c r="AE1" s="130"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="115"/>
     </row>
     <row r="2" spans="1:32" s="3" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="150"/>
+      <c r="B2" s="139"/>
       <c r="C2" s="24"/>
-      <c r="D2" s="131" t="s">
+      <c r="D2" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="131"/>
-      <c r="T2" s="131"/>
-      <c r="U2" s="131"/>
-      <c r="V2" s="131"/>
-      <c r="W2" s="131"/>
-      <c r="X2" s="131"/>
-      <c r="Y2" s="131"/>
-      <c r="Z2" s="131"/>
-      <c r="AA2" s="131"/>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="131"/>
-      <c r="AD2" s="131"/>
-      <c r="AE2" s="132"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="116"/>
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="116"/>
+      <c r="AD2" s="116"/>
+      <c r="AE2" s="117"/>
     </row>
     <row r="3" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="127"/>
+      <c r="B3" s="131"/>
       <c r="C3" s="25"/>
-      <c r="D3" s="116">
+      <c r="D3" s="149">
         <v>2</v>
       </c>
-      <c r="E3" s="116"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="126" t="s">
+      <c r="E3" s="149"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="127"/>
-      <c r="I3" s="139">
+      <c r="H3" s="131"/>
+      <c r="I3" s="124">
         <v>42053</v>
       </c>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="140"/>
-      <c r="P3" s="126" t="s">
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="127"/>
-      <c r="S3" s="127"/>
-      <c r="T3" s="127"/>
-      <c r="U3" s="143"/>
-      <c r="V3" s="143"/>
-      <c r="W3" s="143"/>
-      <c r="X3" s="143"/>
-      <c r="Y3" s="143"/>
-      <c r="Z3" s="143"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="143"/>
-      <c r="AC3" s="143"/>
-      <c r="AD3" s="143"/>
-      <c r="AE3" s="144"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="131"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="131"/>
+      <c r="U3" s="132"/>
+      <c r="V3" s="132"/>
+      <c r="W3" s="132"/>
+      <c r="X3" s="132"/>
+      <c r="Y3" s="132"/>
+      <c r="Z3" s="132"/>
+      <c r="AA3" s="132"/>
+      <c r="AB3" s="132"/>
+      <c r="AC3" s="132"/>
+      <c r="AD3" s="132"/>
+      <c r="AE3" s="133"/>
     </row>
     <row r="4" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="124" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="125"/>
+      <c r="A4" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="141"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="118"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="124" t="s">
+      <c r="E4" s="151"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="125"/>
-      <c r="I4" s="141" t="s">
+      <c r="H4" s="141"/>
+      <c r="I4" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="141"/>
-      <c r="M4" s="141"/>
-      <c r="N4" s="141"/>
-      <c r="O4" s="142"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="126"/>
+      <c r="O4" s="127"/>
       <c r="P4" s="26"/>
-      <c r="Q4" s="148" t="s">
+      <c r="Q4" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="R4" s="148"/>
-      <c r="S4" s="148"/>
-      <c r="T4" s="148"/>
-      <c r="U4" s="148"/>
-      <c r="V4" s="148"/>
-      <c r="W4" s="148"/>
-      <c r="X4" s="148"/>
-      <c r="Y4" s="148"/>
-      <c r="Z4" s="148"/>
-      <c r="AA4" s="148"/>
-      <c r="AB4" s="148"/>
-      <c r="AC4" s="148"/>
-      <c r="AD4" s="148"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="137"/>
+      <c r="T4" s="137"/>
+      <c r="U4" s="137"/>
+      <c r="V4" s="137"/>
+      <c r="W4" s="137"/>
+      <c r="X4" s="137"/>
+      <c r="Y4" s="137"/>
+      <c r="Z4" s="137"/>
+      <c r="AA4" s="137"/>
+      <c r="AB4" s="137"/>
+      <c r="AC4" s="137"/>
+      <c r="AD4" s="137"/>
       <c r="AE4" s="27"/>
     </row>
     <row r="5" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="123"/>
+      <c r="B5" s="143"/>
       <c r="C5" s="28"/>
-      <c r="D5" s="120" t="s">
+      <c r="D5" s="128" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="120"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="122" t="s">
+      <c r="E5" s="128"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="123"/>
-      <c r="I5" s="120" t="s">
+      <c r="H5" s="143"/>
+      <c r="I5" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="121"/>
-      <c r="P5" s="145"/>
-      <c r="Q5" s="146"/>
-      <c r="R5" s="146"/>
-      <c r="S5" s="146"/>
-      <c r="T5" s="146"/>
-      <c r="U5" s="146"/>
-      <c r="V5" s="146"/>
-      <c r="W5" s="146"/>
-      <c r="X5" s="146"/>
-      <c r="Y5" s="146"/>
-      <c r="Z5" s="146"/>
-      <c r="AA5" s="146"/>
-      <c r="AB5" s="146"/>
-      <c r="AC5" s="146"/>
-      <c r="AD5" s="146"/>
-      <c r="AE5" s="147"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="135"/>
+      <c r="R5" s="135"/>
+      <c r="S5" s="135"/>
+      <c r="T5" s="135"/>
+      <c r="U5" s="135"/>
+      <c r="V5" s="135"/>
+      <c r="W5" s="135"/>
+      <c r="X5" s="135"/>
+      <c r="Y5" s="135"/>
+      <c r="Z5" s="135"/>
+      <c r="AA5" s="135"/>
+      <c r="AB5" s="135"/>
+      <c r="AC5" s="135"/>
+      <c r="AD5" s="135"/>
+      <c r="AE5" s="136"/>
     </row>
     <row r="6" spans="1:32" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
       <c r="E6" s="40"/>
       <c r="F6" s="41" t="s">
         <v>12</v>
@@ -2197,42 +2192,42 @@
       <c r="G6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="133" t="s">
+      <c r="H6" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="134"/>
-      <c r="N6" s="134"/>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="134"/>
-      <c r="S6" s="134"/>
-      <c r="T6" s="134"/>
-      <c r="U6" s="134"/>
-      <c r="V6" s="134"/>
-      <c r="W6" s="134"/>
-      <c r="X6" s="134"/>
-      <c r="Y6" s="134"/>
-      <c r="Z6" s="134"/>
-      <c r="AA6" s="134"/>
-      <c r="AB6" s="134"/>
-      <c r="AC6" s="134"/>
-      <c r="AD6" s="134"/>
-      <c r="AE6" s="135"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="119"/>
+      <c r="AC6" s="119"/>
+      <c r="AD6" s="119"/>
+      <c r="AE6" s="120"/>
     </row>
     <row r="7" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="138"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="123"/>
       <c r="E7" s="30"/>
       <c r="F7" s="31" t="s">
         <v>13</v>
@@ -2338,10 +2333,10 @@
       <c r="N8" s="58"/>
       <c r="O8" s="58"/>
       <c r="P8" s="58">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="58">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R8" s="58">
         <v>20</v>
@@ -2350,12 +2345,8 @@
       <c r="T8" s="58">
         <v>20</v>
       </c>
-      <c r="U8" s="85">
-        <v>10</v>
-      </c>
-      <c r="V8" s="58">
-        <v>10</v>
-      </c>
+      <c r="U8" s="85"/>
+      <c r="V8" s="58"/>
       <c r="W8" s="80"/>
       <c r="X8" s="58"/>
       <c r="Y8" s="58"/>
@@ -2616,7 +2607,7 @@
       <c r="A14" s="94">
         <v>7</v>
       </c>
-      <c r="B14" s="194" t="s">
+      <c r="B14" s="111" t="s">
         <v>83</v>
       </c>
       <c r="C14" s="101"/>
@@ -2664,7 +2655,7 @@
       <c r="A15" s="94">
         <v>8</v>
       </c>
-      <c r="B15" s="194" t="s">
+      <c r="B15" s="111" t="s">
         <v>84</v>
       </c>
       <c r="C15" s="101"/>
@@ -2856,7 +2847,7 @@
       <c r="A19" s="94">
         <v>12</v>
       </c>
-      <c r="B19" s="194" t="s">
+      <c r="B19" s="111" t="s">
         <v>89</v>
       </c>
       <c r="C19" s="101"/>
@@ -2904,7 +2895,7 @@
       <c r="A20" s="94">
         <v>13</v>
       </c>
-      <c r="B20" s="194" t="s">
+      <c r="B20" s="111" t="s">
         <v>88</v>
       </c>
       <c r="C20" s="101"/>
@@ -2952,7 +2943,7 @@
       <c r="A21" s="94">
         <v>14</v>
       </c>
-      <c r="B21" s="194" t="s">
+      <c r="B21" s="111" t="s">
         <v>90</v>
       </c>
       <c r="C21" s="101"/>
@@ -2998,7 +2989,7 @@
       <c r="A22" s="94">
         <v>15</v>
       </c>
-      <c r="B22" s="194" t="s">
+      <c r="B22" s="111" t="s">
         <v>85</v>
       </c>
       <c r="C22" s="101"/>
@@ -3046,7 +3037,7 @@
       <c r="A23" s="94">
         <v>16</v>
       </c>
-      <c r="B23" s="194" t="s">
+      <c r="B23" s="111" t="s">
         <v>86</v>
       </c>
       <c r="C23" s="101"/>
@@ -3094,7 +3085,7 @@
       <c r="A24" s="94">
         <v>17</v>
       </c>
-      <c r="B24" s="194" t="s">
+      <c r="B24" s="111" t="s">
         <v>87</v>
       </c>
       <c r="C24" s="101"/>
@@ -3649,7 +3640,7 @@
       <c r="A35" s="94">
         <v>28</v>
       </c>
-      <c r="B35" s="195" t="s">
+      <c r="B35" s="112" t="s">
         <v>91</v>
       </c>
       <c r="C35" s="100"/>
@@ -3695,7 +3686,7 @@
       <c r="A36" s="94">
         <v>29</v>
       </c>
-      <c r="B36" s="195" t="s">
+      <c r="B36" s="112" t="s">
         <v>92</v>
       </c>
       <c r="C36" s="100"/>
@@ -3745,7 +3736,7 @@
       <c r="A37" s="94">
         <v>30</v>
       </c>
-      <c r="B37" s="195" t="s">
+      <c r="B37" s="112" t="s">
         <v>93</v>
       </c>
       <c r="C37" s="100"/>
@@ -3795,7 +3786,7 @@
       <c r="A38" s="94">
         <v>31</v>
       </c>
-      <c r="B38" s="195"/>
+      <c r="B38" s="112"/>
       <c r="C38" s="100"/>
       <c r="D38" s="100"/>
       <c r="E38" s="4"/>
@@ -3833,7 +3824,7 @@
       <c r="A39" s="94">
         <v>32</v>
       </c>
-      <c r="B39" s="195"/>
+      <c r="B39" s="112"/>
       <c r="C39" s="100"/>
       <c r="D39" s="100"/>
       <c r="E39" s="4"/>
@@ -4828,9 +4819,9 @@
       <c r="A63" s="94">
         <v>56</v>
       </c>
-      <c r="B63" s="111"/>
-      <c r="C63" s="112"/>
-      <c r="D63" s="113"/>
+      <c r="B63" s="144"/>
+      <c r="C63" s="145"/>
+      <c r="D63" s="146"/>
       <c r="E63" s="4"/>
       <c r="F63" s="11"/>
       <c r="G63" s="12"/>
@@ -4864,11 +4855,11 @@
     </row>
     <row r="64" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="93"/>
-      <c r="B64" s="114" t="s">
+      <c r="B64" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="C64" s="114"/>
-      <c r="D64" s="115"/>
+      <c r="C64" s="147"/>
+      <c r="D64" s="148"/>
       <c r="E64" s="37"/>
       <c r="F64" s="38">
         <f>SUM(F8:F48)</f>
@@ -4909,11 +4900,11 @@
       </c>
       <c r="P64" s="39">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="Q64" s="39">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="R64" s="39">
         <f t="shared" si="5"/>
@@ -4929,11 +4920,11 @@
       </c>
       <c r="U64" s="39">
         <f t="shared" si="5"/>
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="V64" s="39">
         <f t="shared" si="5"/>
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="W64" s="39">
         <f t="shared" si="5"/>
@@ -5046,6 +5037,14 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="24">
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="D2:AE2"/>
     <mergeCell ref="H6:AE6"/>
@@ -5062,14 +5061,6 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -5101,240 +5092,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="164" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="172"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="172"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="172"/>
-      <c r="T1" s="172"/>
-      <c r="U1" s="172"/>
-      <c r="V1" s="172"/>
-      <c r="W1" s="172"/>
-      <c r="X1" s="172"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="172"/>
-      <c r="AA1" s="172"/>
-      <c r="AB1" s="172"/>
-      <c r="AC1" s="172"/>
-      <c r="AD1" s="173"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="165"/>
+      <c r="T1" s="165"/>
+      <c r="U1" s="165"/>
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="165"/>
+      <c r="AB1" s="165"/>
+      <c r="AC1" s="165"/>
+      <c r="AD1" s="166"/>
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="177"/>
+      <c r="B2" s="170"/>
       <c r="C2" s="43"/>
-      <c r="D2" s="174" t="str">
+      <c r="D2" s="167" t="str">
         <f>Basplan!D2</f>
         <v>Undsättningsrobot</v>
       </c>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="174"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="174"/>
-      <c r="AA2" s="174"/>
-      <c r="AB2" s="174"/>
-      <c r="AC2" s="174"/>
-      <c r="AD2" s="175"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="167"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="167"/>
+      <c r="X2" s="167"/>
+      <c r="Y2" s="167"/>
+      <c r="Z2" s="167"/>
+      <c r="AA2" s="167"/>
+      <c r="AB2" s="167"/>
+      <c r="AC2" s="167"/>
+      <c r="AD2" s="168"/>
     </row>
     <row r="3" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="179"/>
+      <c r="B3" s="172"/>
       <c r="C3" s="44"/>
-      <c r="D3" s="180">
+      <c r="D3" s="173">
         <f>Basplan!D3</f>
         <v>2</v>
       </c>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="126" t="s">
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="183"/>
-      <c r="L3" s="139">
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="124">
         <v>42051</v>
       </c>
-      <c r="M3" s="184"/>
-      <c r="N3" s="184"/>
-      <c r="O3" s="184"/>
-      <c r="P3" s="184"/>
-      <c r="Q3" s="184"/>
-      <c r="R3" s="184"/>
-      <c r="S3" s="184"/>
-      <c r="T3" s="184"/>
-      <c r="U3" s="184"/>
-      <c r="V3" s="184"/>
-      <c r="W3" s="184"/>
-      <c r="X3" s="184"/>
-      <c r="Y3" s="184"/>
-      <c r="Z3" s="184"/>
-      <c r="AA3" s="184"/>
-      <c r="AB3" s="184"/>
-      <c r="AC3" s="184"/>
-      <c r="AD3" s="185"/>
+      <c r="M3" s="177"/>
+      <c r="N3" s="177"/>
+      <c r="O3" s="177"/>
+      <c r="P3" s="177"/>
+      <c r="Q3" s="177"/>
+      <c r="R3" s="177"/>
+      <c r="S3" s="177"/>
+      <c r="T3" s="177"/>
+      <c r="U3" s="177"/>
+      <c r="V3" s="177"/>
+      <c r="W3" s="177"/>
+      <c r="X3" s="177"/>
+      <c r="Y3" s="177"/>
+      <c r="Z3" s="177"/>
+      <c r="AA3" s="177"/>
+      <c r="AB3" s="177"/>
+      <c r="AC3" s="177"/>
+      <c r="AD3" s="178"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="154" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="164"/>
+      <c r="A4" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="190"/>
       <c r="C4" s="45"/>
-      <c r="D4" s="165" t="str">
+      <c r="D4" s="191" t="str">
         <f>Basplan!D4</f>
         <v>Kent Palmkvist</v>
       </c>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="154" t="s">
+      <c r="E4" s="192"/>
+      <c r="F4" s="192"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="180" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="156" t="s">
+      <c r="I4" s="181"/>
+      <c r="J4" s="181"/>
+      <c r="K4" s="181"/>
+      <c r="L4" s="182" t="s">
         <v>56</v>
       </c>
-      <c r="M4" s="157"/>
-      <c r="N4" s="157"/>
-      <c r="O4" s="157"/>
-      <c r="P4" s="157"/>
-      <c r="Q4" s="157"/>
-      <c r="R4" s="157"/>
-      <c r="S4" s="157"/>
-      <c r="T4" s="157"/>
-      <c r="U4" s="157"/>
-      <c r="V4" s="157"/>
-      <c r="W4" s="157"/>
-      <c r="X4" s="157"/>
-      <c r="Y4" s="157"/>
-      <c r="Z4" s="157"/>
-      <c r="AA4" s="157"/>
-      <c r="AB4" s="157"/>
-      <c r="AC4" s="157"/>
-      <c r="AD4" s="158"/>
+      <c r="M4" s="183"/>
+      <c r="N4" s="183"/>
+      <c r="O4" s="183"/>
+      <c r="P4" s="183"/>
+      <c r="Q4" s="183"/>
+      <c r="R4" s="183"/>
+      <c r="S4" s="183"/>
+      <c r="T4" s="183"/>
+      <c r="U4" s="183"/>
+      <c r="V4" s="183"/>
+      <c r="W4" s="183"/>
+      <c r="X4" s="183"/>
+      <c r="Y4" s="183"/>
+      <c r="Z4" s="183"/>
+      <c r="AA4" s="183"/>
+      <c r="AB4" s="183"/>
+      <c r="AC4" s="183"/>
+      <c r="AD4" s="184"/>
     </row>
     <row r="5" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="170"/>
+      <c r="B5" s="195"/>
       <c r="C5" s="46"/>
-      <c r="D5" s="189" t="str">
+      <c r="D5" s="161" t="str">
         <f>Basplan!D5</f>
         <v>TSEA56</v>
       </c>
-      <c r="E5" s="190"/>
-      <c r="F5" s="190"/>
-      <c r="G5" s="191"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
-      <c r="M5" s="146"/>
-      <c r="N5" s="146"/>
-      <c r="O5" s="146"/>
-      <c r="P5" s="146"/>
-      <c r="Q5" s="146"/>
-      <c r="R5" s="146"/>
-      <c r="S5" s="146"/>
-      <c r="T5" s="146"/>
-      <c r="U5" s="146"/>
-      <c r="V5" s="146"/>
-      <c r="W5" s="146"/>
-      <c r="X5" s="146"/>
-      <c r="Y5" s="146"/>
-      <c r="Z5" s="146"/>
-      <c r="AA5" s="146"/>
-      <c r="AB5" s="146"/>
-      <c r="AC5" s="146"/>
-      <c r="AD5" s="147"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="179"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="135"/>
+      <c r="N5" s="135"/>
+      <c r="O5" s="135"/>
+      <c r="P5" s="135"/>
+      <c r="Q5" s="135"/>
+      <c r="R5" s="135"/>
+      <c r="S5" s="135"/>
+      <c r="T5" s="135"/>
+      <c r="U5" s="135"/>
+      <c r="V5" s="135"/>
+      <c r="W5" s="135"/>
+      <c r="X5" s="135"/>
+      <c r="Y5" s="135"/>
+      <c r="Z5" s="135"/>
+      <c r="AA5" s="135"/>
+      <c r="AB5" s="135"/>
+      <c r="AC5" s="135"/>
+      <c r="AD5" s="136"/>
     </row>
     <row r="6" spans="1:31" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="162" t="s">
+      <c r="A6" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="163"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="159" t="s">
+      <c r="B6" s="189"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="189"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="189"/>
+      <c r="G6" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="160"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="160"/>
-      <c r="K6" s="160"/>
-      <c r="L6" s="160"/>
-      <c r="M6" s="160"/>
-      <c r="N6" s="160"/>
-      <c r="O6" s="160"/>
-      <c r="P6" s="160"/>
-      <c r="Q6" s="160"/>
-      <c r="R6" s="160"/>
-      <c r="S6" s="160"/>
-      <c r="T6" s="160"/>
-      <c r="U6" s="160"/>
-      <c r="V6" s="160"/>
-      <c r="W6" s="160"/>
-      <c r="X6" s="160"/>
-      <c r="Y6" s="160"/>
-      <c r="Z6" s="160"/>
-      <c r="AA6" s="160"/>
-      <c r="AB6" s="160"/>
-      <c r="AC6" s="160"/>
-      <c r="AD6" s="161"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="186"/>
+      <c r="L6" s="186"/>
+      <c r="M6" s="186"/>
+      <c r="N6" s="186"/>
+      <c r="O6" s="186"/>
+      <c r="P6" s="186"/>
+      <c r="Q6" s="186"/>
+      <c r="R6" s="186"/>
+      <c r="S6" s="186"/>
+      <c r="T6" s="186"/>
+      <c r="U6" s="186"/>
+      <c r="V6" s="186"/>
+      <c r="W6" s="186"/>
+      <c r="X6" s="186"/>
+      <c r="Y6" s="186"/>
+      <c r="Z6" s="186"/>
+      <c r="AA6" s="186"/>
+      <c r="AB6" s="186"/>
+      <c r="AC6" s="186"/>
+      <c r="AD6" s="187"/>
     </row>
     <row r="7" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29"/>
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
       <c r="G7" s="31">
         <f>Basplan!H7</f>
         <v>1</v>
@@ -5433,13 +5424,13 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="52"/>
-      <c r="B8" s="186" t="s">
+      <c r="B8" s="157" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="187"/>
-      <c r="D8" s="187"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="188"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="159"/>
       <c r="G8" s="64"/>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
@@ -5476,13 +5467,13 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="52"/>
-      <c r="B9" s="151" t="s">
+      <c r="B9" s="153" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="152"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="168"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="160"/>
       <c r="G9" s="66"/>
       <c r="H9" s="67"/>
       <c r="I9" s="67"/>
@@ -5519,13 +5510,13 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="52"/>
-      <c r="B10" s="151" t="s">
+      <c r="B10" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="152"/>
-      <c r="D10" s="152"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="168"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="160"/>
       <c r="G10" s="66"/>
       <c r="H10" s="67"/>
       <c r="I10" s="67"/>
@@ -5562,13 +5553,13 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="52"/>
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="153" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="152"/>
-      <c r="D11" s="152"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="168"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="160"/>
       <c r="G11" s="66"/>
       <c r="H11" s="67"/>
       <c r="I11" s="67"/>
@@ -5605,13 +5596,13 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="52"/>
-      <c r="B12" s="151" t="s">
+      <c r="B12" s="153" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="152"/>
-      <c r="D12" s="152"/>
-      <c r="E12" s="152"/>
-      <c r="F12" s="168"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="160"/>
       <c r="G12" s="66"/>
       <c r="H12" s="67"/>
       <c r="I12" s="67"/>
@@ -5649,13 +5640,13 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="52"/>
-      <c r="B13" s="151" t="s">
+      <c r="B13" s="153" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="152"/>
-      <c r="D13" s="152"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
       <c r="G13" s="66"/>
       <c r="H13" s="67"/>
       <c r="I13" s="67"/>
@@ -5692,11 +5683,11 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="52"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
       <c r="G14" s="18"/>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
@@ -5727,11 +5718,11 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="52"/>
-      <c r="B15" s="151"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="152"/>
+      <c r="B15" s="153"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
       <c r="G15" s="18"/>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
@@ -5762,11 +5753,11 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="52"/>
-      <c r="B16" s="151"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="152"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
       <c r="G16" s="18"/>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -5797,11 +5788,11 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="52"/>
-      <c r="B17" s="151"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="152"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="152"/>
+      <c r="B17" s="153"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
       <c r="G17" s="18"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -5832,11 +5823,11 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="52"/>
-      <c r="B18" s="151"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
       <c r="G18" s="18"/>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -5867,11 +5858,11 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="52"/>
-      <c r="B19" s="151"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
       <c r="G19" s="18"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -5902,11 +5893,11 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="52"/>
-      <c r="B20" s="151"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="152"/>
-      <c r="F20" s="152"/>
+      <c r="B20" s="153"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
       <c r="G20" s="18"/>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -5937,11 +5928,11 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="52"/>
-      <c r="B21" s="151"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="152"/>
+      <c r="B21" s="153"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
       <c r="G21" s="18"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -5972,11 +5963,11 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="52"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="152"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
       <c r="G22" s="18"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -6007,11 +5998,11 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="52"/>
-      <c r="B23" s="151"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
       <c r="G23" s="18"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -6042,11 +6033,11 @@
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="52"/>
-      <c r="B24" s="151"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
+      <c r="B24" s="153"/>
+      <c r="C24" s="154"/>
+      <c r="D24" s="154"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="154"/>
       <c r="G24" s="18"/>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -6077,11 +6068,11 @@
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="52"/>
-      <c r="B25" s="151"/>
-      <c r="C25" s="152"/>
-      <c r="D25" s="152"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="152"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="154"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="154"/>
       <c r="G25" s="18"/>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -6112,11 +6103,11 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="52"/>
-      <c r="B26" s="151"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="152"/>
-      <c r="F26" s="152"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
       <c r="G26" s="18"/>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -6147,11 +6138,11 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="52"/>
-      <c r="B27" s="151"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
+      <c r="B27" s="153"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
       <c r="G27" s="18"/>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -6182,11 +6173,11 @@
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="53"/>
-      <c r="B28" s="151"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="152"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
       <c r="G28" s="18"/>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -6217,11 +6208,11 @@
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="53"/>
-      <c r="B29" s="151"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="152"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
       <c r="G29" s="18"/>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -6252,11 +6243,11 @@
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="52"/>
-      <c r="B30" s="151"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="152"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
       <c r="G30" s="18"/>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -6287,11 +6278,11 @@
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="52"/>
-      <c r="B31" s="151"/>
-      <c r="C31" s="152"/>
-      <c r="D31" s="152"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="152"/>
+      <c r="B31" s="153"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
       <c r="G31" s="18"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -6322,11 +6313,11 @@
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="52"/>
-      <c r="B32" s="151"/>
-      <c r="C32" s="152"/>
-      <c r="D32" s="152"/>
-      <c r="E32" s="152"/>
-      <c r="F32" s="152"/>
+      <c r="B32" s="153"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
       <c r="G32" s="18"/>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -6357,11 +6348,11 @@
     </row>
     <row r="33" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52"/>
-      <c r="B33" s="192"/>
-      <c r="C33" s="193"/>
-      <c r="D33" s="193"/>
-      <c r="E33" s="193"/>
-      <c r="F33" s="193"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="156"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="156"/>
       <c r="G33" s="21"/>
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
@@ -6392,13 +6383,13 @@
     </row>
     <row r="34" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="31"/>
-      <c r="B34" s="114" t="s">
+      <c r="B34" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
+      <c r="C34" s="147"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="147"/>
       <c r="G34" s="54">
         <f>SUM(G8:G33)</f>
         <v>0</v>
@@ -6499,6 +6490,34 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="44">
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="H5:AD5"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:AD4"/>
+    <mergeCell ref="G6:AD6"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="D2:AD2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:AD3"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B11:F11"/>
     <mergeCell ref="B32:F32"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="B19:F19"/>
@@ -6515,34 +6534,6 @@
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A1:AD1"/>
-    <mergeCell ref="D2:AD2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:AD3"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="H5:AD5"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:AD4"/>
-    <mergeCell ref="G6:AD6"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.71" top="1" bottom="1" header="0.5" footer="0.61"/>
